--- a/files/costa_rica.xlsx
+++ b/files/costa_rica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="1219">
   <si>
     <t>Variable</t>
   </si>
@@ -1341,21 +1341,24 @@
     <t>ORGANISMOS MULTILATERALES</t>
   </si>
   <si>
+    <t>PROGRAMA DE NACIONES UNIDAS PARA EL DESARROLLO (PNUD)</t>
+  </si>
+  <si>
+    <t>Evaluar la opinión que tienen las personas sobre las políticas ambientales en el país. Evaluar el nivel de conocimiento que posee la población sobre los temas asociados a cambio climático. Conocer las posibilidades de mercado para productos carbono neutral y ambientalmente sostenible</t>
+  </si>
+  <si>
+    <t>Problema * Grado de acuerdo y desacuerdo * Percepción cambio climático * Causa cambio climático * Factores que influyen el cambio climático * Intención compra producto sostenible * Producto * Servicio</t>
+  </si>
+  <si>
+    <t>Principal problema ambiental que afecta a Costa Rica actualmente * Grado de acuerdo ante afirmaciones relacionadas con la responsabilidad de distintos actores de proteger el ambiente * Grados de acuerdo… para contener la degradación ambiental y el cambio climático * Opinión de las posibles causas que contribuyen al cambio climático * Opinión posibles afectaciones que contribuyen al cambio climático * Preferencia para seleccionar un producto o servicio amigable con el medio ambiente * Cuánto estaría dispuesto a pagar de más por un producto amigable con el medio ambiente</t>
+  </si>
+  <si>
+    <t>NACIONAL * REGIONES</t>
+  </si>
+  <si>
     <t>PNUD</t>
   </si>
   <si>
-    <t>Evaluar la opinión que tienen las personas sobre las políticas ambientales en el país. Evaluar el nivel de conocimiento que posee la población sobre los temas asociados a cambio climático. Conocer las posibilidades de mercado para productos carbono neutral y ambientalmente sostenible</t>
-  </si>
-  <si>
-    <t>Problema * Grado de acuerdo y desacuerdo * Percepción cambio climático * Causa cambio climático * Factores que influyen el cambio climático * Intención compra producto sostenible * Producto * Servicio</t>
-  </si>
-  <si>
-    <t>Principal problema ambiental que afecta a Costa Rica actualmente * Grado de acuerdo ante afirmaciones relacionadas con la responsabilidad de distintos actores de proteger el ambiente * Grados de acuerdo… para contener la degradación ambiental y el cambio climático * Opinión de las posibles causas que contribuyen al cambio climático * Opinión posibles afectaciones que contribuyen al cambio climático * Preferencia para seleccionar un producto o servicio amigable con el medio ambiente * Cuánto estaría dispuesto a pagar de más por un producto amigable con el medio ambiente</t>
-  </si>
-  <si>
-    <t>NACIONAL * REGIONES</t>
-  </si>
-  <si>
     <t>http://www.cr.undp.org/content/costarica/es/home/library/environment_energy.html</t>
   </si>
   <si>
@@ -1425,21 +1428,24 @@
     <t>BENEFICIARIOS PROGRAMA DE BECAS 2006-2010</t>
   </si>
   <si>
+    <t>FONDO NACIONAL DE BECAS (FONABE)</t>
+  </si>
+  <si>
+    <t>Informar a la Presidencia de la República, al Ministerio de Educación, a la Asamblea Legislativa y la opinión pública sobre la gestión institucional del Fondo Nacional de Becas 2010</t>
+  </si>
+  <si>
+    <t>* Año * Programa * Género estudiante * Zona * Provincia * Universidad * Nivel educativo * Año * Colegio * Beneficiarios * Inversión * Condición económica</t>
+  </si>
+  <si>
+    <t>Distribución de la inversión en becas 2006-2010 * Parámetros de medición según la línea de pobreza del INEC</t>
+  </si>
+  <si>
+    <t>NACIONAL * PROVINCIA</t>
+  </si>
+  <si>
     <t>FONDO NACIONAL DE BECAS - FONABE</t>
   </si>
   <si>
-    <t>Informar a la Presidencia de la República, al Ministerio de Educación, a la Asamblea Legislativa y la opinión pública sobre la gestión institucional del Fondo Nacional de Becas 2010</t>
-  </si>
-  <si>
-    <t>* Año * Programa * Género estudiante * Zona * Provincia * Universidad * Nivel educativo * Año * Colegio * Beneficiarios * Inversión * Condición económica</t>
-  </si>
-  <si>
-    <t>Distribución de la inversión en becas 2006-2010 * Parámetros de medición según la línea de pobreza del INEC</t>
-  </si>
-  <si>
-    <t>NACIONAL * PROVINCIA</t>
-  </si>
-  <si>
     <t>http://www.fonabe.go.cr/Informacion/EncargadosBecas/Paginas/Funciones_Comite_Becas.aspx</t>
   </si>
   <si>
@@ -1449,7 +1455,7 @@
     <t>SOCIEDAD CIVIL</t>
   </si>
   <si>
-    <t>ASOCIACION ORNITOLÓGICA DE COSTA RICA (AOCR)</t>
+    <t>ASOCIACIÓN ORNITOLÓGICA DE COSTA RICA (AOCR)</t>
   </si>
   <si>
     <t>Mantener informado en EXCEL Y ON LINE al público en general, instituciones estatales, ONG's y a la comunidad ornitológica nacional e internacional, sobre los últimos avances y cambios en la Lista Oficial.</t>
@@ -1468,9 +1474,6 @@
   </si>
   <si>
     <t>MONITOREO NACIONAL DE AVES RESIDENTES- PROYECTO PUNTOS DE CONTEO DE AVES RESIDENTES-COSTA RICA 2012-2014</t>
-  </si>
-  <si>
-    <t>ASOCIACIÓN ORNITOLÓGICA DE COSTA RICA (AOCR)</t>
   </si>
   <si>
     <t>Mantener informado al público en general, instituciones estatales, ONG's y a la comunidad ornitológica nacional e internacional, sobre los últimos avances y cambios en la Lista Oficial.</t>
@@ -1658,9 +1661,6 @@
     <t>PLAYAS BUENAVISTA * MATAPALO * PLAYA LINDA * MONTEZUMA</t>
   </si>
   <si>
-    <t>http://www.asvocr.org/asvo/actividad.php</t>
-  </si>
-  <si>
     <t>http://www.asvocr.org/asvo/info.php</t>
   </si>
   <si>
@@ -1784,9 +1784,6 @@
     <t>INDICE DE VULNERABILIDAD EDUCATIVA 2010</t>
   </si>
   <si>
-    <t>FONDO NACIONAL DE BECAS (FONABE)</t>
-  </si>
-  <si>
     <t>Diseñar un instrumento cuantitativo para predecir los principales factores asociados a la probabilidad de abandono o fracaso escolar en primaria y en secundaria, que asista al Ministerio de Educación Pública en la toma de decisiones de política educativa.</t>
   </si>
   <si>
@@ -1838,16 +1835,19 @@
     <t>ENCUESTA DE INDICADORES MÚLTIPLES POR CONGLOMERADOS 2011- MONITOREO DE LA NIÑEZ Y LAS MUJERES</t>
   </si>
   <si>
+    <t>FONDO DE LAS NACIONES UNIDAS PARA LA INFANCIA (UNICEF)</t>
+  </si>
+  <si>
+    <t>Proporcionar una información actualizada para evaluar la situación de los niños (as) y de las mujeres en Costa Rica. Suministrar los datos necesarios para monitorear el progreso hacia los objetivos establecidos en la Declaración del Milenio y otras metas acordadas internacionalmente, como base para la acción futura. Contribuir a la mejora de los datos y sistemas de monitoreo en Costa Rica y fortalecer los conocimientos técnicos en el diseño, implementación y análisis de dichos sistemas; generar datos sobre la situación de los niños (as) y de las mujeres, incluida la identificación de grupos vulnerables y de las desigualdades, para informar de políticas e intervenciones.</t>
+  </si>
+  <si>
+    <t>Sexo * Edad * Área * Educación * Etnia * Índice de riqueza * Número de niños * Grado estudio * Certificado de nacimiento * Estado civil * Anticoncepción * Caracteristicas vivienda * Fuente agua * Servicios sanitarios</t>
+  </si>
+  <si>
+    <t>Resultados de entrevistas de hogares, mujeres y menores de 5 años * Distribución por sexo y edad en el hogar * Composición del hogar * Características básicas de las mujeres * Características básicas de niños menores de 5 años * Alimentación de pecho inicial * Alimentación con leche materna * Duración de la alimentación de pecho * Frecuencia mínima de comidas * Esquema oficial de vacunación oficial en menores de 6 años. Costa Rica, 2011 * Uso de fuentes de agua mejoradas * Tratamiento de agua en el hogar * Tipo de servicios sanitarios * Agua potable y escalas de higiene * Maternidad temprana * Usos de anticonceptivos * Actitud de aceptación hacia las personas que viven con el VIH / SIDA</t>
+  </si>
+  <si>
     <t>UNICEF</t>
-  </si>
-  <si>
-    <t>Proporcionar una información actualizada para evaluar la situación de los niños (as) y de las mujeres en Costa Rica. Suministrar los datos necesarios para monitorear el progreso hacia los objetivos establecidos en la Declaración del Milenio y otras metas acordadas internacionalmente, como base para la acción futura. Contribuir a la mejora de los datos y sistemas de monitoreo en Costa Rica y fortalecer los conocimientos técnicos en el diseño, implementación y análisis de dichos sistemas; generar datos sobre la situación de los niños (as) y de las mujeres, incluida la identificación de grupos vulnerables y de las desigualdades, para informar de políticas e intervenciones.</t>
-  </si>
-  <si>
-    <t>Sexo * Edad * Área * Educación * Etnia * Índice de riqueza * Número de niños * Grado estudio * Certificado de nacimiento * Estado civil * Anticoncepción * Caracteristicas vivienda * Fuente agua * Servicios sanitarios</t>
-  </si>
-  <si>
-    <t>Resultados de entrevistas de hogares, mujeres y menores de 5 años * Distribución por sexo y edad en el hogar * Composición del hogar * Características básicas de las mujeres * Características básicas de niños menores de 5 años * Alimentación de pecho inicial * Alimentación con leche materna * Duración de la alimentación de pecho * Frecuencia mínima de comidas * Esquema oficial de vacunación oficial en menores de 6 años. Costa Rica, 2011 * Uso de fuentes de agua mejoradas * Tratamiento de agua en el hogar * Tipo de servicios sanitarios * Agua potable y escalas de higiene * Maternidad temprana * Usos de anticonceptivos * Actitud de aceptación hacia las personas que viven con el VIH / SIDA</t>
   </si>
   <si>
     <t>http://www.unicef.org/costarica/</t>
@@ -3404,9 +3404,6 @@
     <t>ESTADÍSTICAS MUNDIALES EL ESTADO DE LOS NIÑOS CUADROS ESTADÍSTICOS 1970-1990 A 2013</t>
   </si>
   <si>
-    <t>FONDO DE LAS NACIONES UNIDAS PARA LA INFANCIA (UNICEF)</t>
-  </si>
-  <si>
     <t>El Estado 2015 del Informe Mundial de la Infancia contiene la última actualización de las estadísticas detalladas proporcionadas por UNICEF sobre el bienestar del niño - Ver más en http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html#sthash.fsg3kXwc.dpuf</t>
   </si>
   <si>
@@ -3579,13 +3576,234 @@
   </si>
   <si>
     <t>http://www.mep.go.cr/programas-y-proyectos/programa-nacional-de-huertas</t>
+  </si>
+  <si>
+    <t>INVENTARIO HISTÓRICO DE DESASTRES</t>
+  </si>
+  <si>
+    <t>SISTEMA DE INVENTARIO DE EFECTOS DE DESASTRES (DESINVENTAR)</t>
+  </si>
+  <si>
+    <t>Presentar información en línea que permita a una comunidad aprender de su propio pasado olvidado, gestionar un riesgo específico, puede ser compilada, homogeneizada, analizada y tratada a diferentes resoluciones espaciales y temporales.</t>
+  </si>
+  <si>
+    <t>Provincia * Número de fichas * Muertos * Desaparecidos * Heridos * Enfermos * Afectados * Reubicados * Viviendas afectadas * Evacuados * Damnificados *Viviendas destruidas</t>
+  </si>
+  <si>
+    <t>Inventario histórico de desastres</t>
+  </si>
+  <si>
+    <t>https://online.desinventar.org/desinventar/#CRI-1250694968-costa_rica_inventario_historico_de_desastres</t>
+  </si>
+  <si>
+    <t>http://www.desinventar.org/es/database#</t>
+  </si>
+  <si>
+    <t>SITUACIÓN DE LA POBLACIÓN ADULTA MAYOR LGBT EN COSTA RICA, EL SALVADOR Y PANAMÁ</t>
+  </si>
+  <si>
+    <t>Analizar la situación de las personas LGBT adultas mayores, la oferta de servicios de cuido y atención, las principales barreras que existen, y las necesidades específicas de atención y cuido de esta población</t>
+  </si>
+  <si>
+    <t>Institución * Tiempo de servicio en institución * Empleados institución * Adultos mayores * Sexo * Edad * Nivel educativo * Estado Cívil * Religión * Participación actividades religiosas * Antigüedad institución * Formación trabajo adultos mayores * Servicios ofrecidos * Ayudas financiamiento * Requisitos admisión * Capacitación sobre violencia * Permisión convivencia personas mismo sexo * Reconocimiento vínculo parejas del mismo sexo</t>
+  </si>
+  <si>
+    <t>Características de los centros de atención para personas adultas mayores encuestados * Perfil de las personas entrevistadas * Perfil y oferta general de servicios instituciones encuestadas * Relaciones de pareja en las instituciones * Información sobre diversidad sexual * Porcentaje de respuestas correctas a ítems de conocimientos * Actitudes hacia la población LGBT adulta mayor * Rechazo a actitudes discriminatorias en los centros hacia personas adultas mayores LGBT * Necesidades, expectativas y perspectiva a futuro: entrevista a personas LGBTI</t>
+  </si>
+  <si>
+    <t>http://www.cipacdh.org/pdf/Informe_final_REGIONAL.pdf</t>
+  </si>
+  <si>
+    <t>EMISIONES DIÓXIDO DE CARBONO (CO2)</t>
+  </si>
+  <si>
+    <t>BANCO MUNDIAL (BM)</t>
+  </si>
+  <si>
+    <t>Presentar información de las emisiones de dióxido de carbono provenietes de la quema de combustibles fósiles y de la fabricación del cemento. Incluyen el dióxido de carbono producido durante el consumo de combustibles sólidos, líquidos, gaseosos y de la quema de gas.</t>
+  </si>
+  <si>
+    <t>País * Región * Año</t>
+  </si>
+  <si>
+    <t>Indicadores del desarrollo mundial por pais y año 1960-2013 *</t>
+  </si>
+  <si>
+    <t>http://datos.bancomundial.org/indicador/EN.ATM.CO2E.PC</t>
+  </si>
+  <si>
+    <t>RESUMEN DIARIO DE OPERACIÓN DEL SISTEMA ELÉCTRICO NACIONAL (SEN)</t>
+  </si>
+  <si>
+    <t>Presentar información preliminar y resumida de la operación del Sistema Eléctrico Nacional (SEN)</t>
+  </si>
+  <si>
+    <t>Geotérmico * Eólico * Filo-ICE * Embalses estacionales * Potencia * Demanda * Planta * Unidad * Fecha inicio * Fecha final</t>
+  </si>
+  <si>
+    <t>Producción de energía por fuente * Niveles de embalse * Composición de la generación en hora punta * Potencia disponible * Principales eventos del día</t>
+  </si>
+  <si>
+    <t>http://appcenter.grupoice.com/CenceWeb/CenceDescargaArchivos.jsf?init=true&amp;categoria=3&amp;codigoTipoArchivo=3010</t>
+  </si>
+  <si>
+    <t>DIARIO</t>
+  </si>
+  <si>
+    <t>PARÁMETROS TÉCNICOS PARA REALIZAR ESTUDIOS DE SEGURIDAD OPERATIVA Y PLANEAMIENTO OPERATIVO</t>
+  </si>
+  <si>
+    <t>Presentar información técnica del Sistema Eléctrico Nacional (SEN)</t>
+  </si>
+  <si>
+    <t>Nodo * Voltaje * Código * Planta * Voltaje de consigna * Identificador * Potencia * Capacidad * Resistencia * Voltaje * Reactancia * Sobrecarga * Tipo de Central * Unidad Generadora * Caudal * Producción * Área * Cota * Combustible * Consumo * Indisponibilidad * Año * Mes * Demanda energía</t>
+  </si>
+  <si>
+    <t>Nomenclatura Nodos del Sistema Electrico Nacional de Costa Rica* Nodos del Sistema Electrico Nacional de Costa Rica * Plantas de Generación del Sistema Electrico Nacional de Costa Rica * Cargas conectadas al Sistema Electrico Nacional de Costa Rica * Bancos de Capacitores y reactores conectados al Sistema Electrico Nacional de Costa Rica * Líneas de transmisión del Sistema Electrico Nacional de Costa Rica * Transformadores de dos devanados conectados al Sistema Eléctrico Nacional de Costa Ricatransmisión del Sistema Electrico Nacional de Costa Rica * Transformadores de tres devanados conectados al Sistema Eléctrico Nacional de Costa Rica * Centrales hidroélectricas existentes y futuras del Sistema Eléctrico Nacional de Costa Rica *Centrales geotérmicas existentes y futuras del Sistema Electrico Nacional de Costa Rica * Parámetros de las centrales eólicas existentes y futuras del Sistema Electrico Nacional de Costa Rica *Generación a partir de biomasa existentes y futuras del Sistema Electrico Nacional de Costa Rica * Centrales solares existentes y futuras del Sistema Electrico Nacional de Costa Rica * Proyección anual de la demanda del Sistema Electrico Nacional de Costa Rica *Caudales afluentes promedio mensualesa los embalses de las plantas hidroeléctricas del ICE * Plan de mantenimiento anual para el año 2014</t>
+  </si>
+  <si>
+    <t>http://appcenter.grupoice.com/CenceWeb/AccesoArchivos?pmod=1&amp;pcat=3&amp;ptip=3013&amp;pcod=1</t>
+  </si>
+  <si>
+    <t>http://appcenter.grupoice.com/CenceWeb/CenceDescargaArchivos.jsf?init=true&amp;categoria=3&amp;codigoTipoArchivo=3013</t>
+  </si>
+  <si>
+    <t>PLAN DE EXPANSIÓN DE LA GENERACIÓN ELÉCTRICA (PEG 2014-2015)</t>
+  </si>
+  <si>
+    <t>Señalar los grandes temas relativos al futuro energético, para garantiza un equilibrio entre la oferta y la demanda de electricidad y el control de las inversiones
+ excesivas para evitar el mayor costo de la energía que puedan causan un daño a la economía del país.</t>
+  </si>
+  <si>
+    <t>Fuente * Potencial identificado * Capacidad instalada * Año *Tipo combustible * Licuefacción * Transporte * Ciclo * Potencia * Suministro * Generación * Embalse * Producción específica * Tipo combustible * Indisponibilidd * Tipo de planta * Proyecto * Desarrollador * Empresa distribuidora * Mantenimiento * Plan * Ruta * Demanda</t>
+  </si>
+  <si>
+    <t>Potencial energético local * Emisiones equivalentes y rentabilidad energética * Precios del crudo de petróleo en el escenario base * Proyección de precio de los combustibles * Precios del carbón * Precios del gas natural licuado * Cargos variables del suministro de combustible * Cargos fijos de inversión y suministro de combustible * Proyección de precio de los combustibles * Características de plantas generadoras eléctricas existentes * Proyectos fijos en el plan de expansión * Características de proyectos candidatos *Costos de los proyectos * Costos unitarios de instalación y producción * Lista parcial de proyectos de generación de empresas distribuidoras * Mantenimientos mayores del 2014 * Plan de expansión de corto plazo * Necesidad de nueva capacidad en el corto plazo * Planes y rutas de expansión</t>
+  </si>
+  <si>
+    <t>http://appcenter.grupoice.com/CenceWeb/AccesoArchivos?pmod=1&amp;pcat=3&amp;ptip=3013&amp;pcod=3</t>
+  </si>
+  <si>
+    <t>PLAN DE EXPANSIÓN DE LA TRANSMISIÓN 2013-2024</t>
+  </si>
+  <si>
+    <t>Representar la actualización del Plan de Expansión de Transmisión para el período 2013 – 2024 con fechas oficiales a setiembre de 2013</t>
+  </si>
+  <si>
+    <t>Localización * Año * Longitud Línea * Proyecto * Responsable * Sistema * Tensión * Transmisión * Energía * Potencia * Inversión * Costos * Oferta * Demanda * Capacidad instalada * Fuente</t>
+  </si>
+  <si>
+    <t>Mapa sistema de transmisión de Costa Rica 2013 * Líneas de transmisión 2003-2012 * Capacidad de transformación 2003-2012 * Actualización del Plan de Expansión de Transmisión para el período 2013 - 2024 * Distribución de las obras en función de las fechas de entrada en operación de los proyectos de transmisión *Plan de Expansión de Transmisión * Análisis de costos del Plan de Expansión de Transmisión para el período 2013 - 2024 * Plan de Expansión de Transmisión
+ Noviembre de 2012 * Plan de Expansión de Generación Octubre de 2013</t>
+  </si>
+  <si>
+    <t>http://appcenter.grupoice.com/CenceWeb/AccesoArchivos?pmod=1&amp;pcat=3&amp;ptip=3013&amp;pcod=2</t>
+  </si>
+  <si>
+    <t>EMISIONES DIÓXIDO DE CARBONO (CO2) y EMISIONES GEI</t>
+  </si>
+  <si>
+    <t>Presentar los datos de Emisiones - Agricultura de FAOSTAT contribuyen al Quinto Informe de Evaluación del III Grupo de trabajo del IPCC, extendiendo las tendencias de análisis de los datos de actividad y de las emisiones de GEI a la actualidad, así como asegurar las actualizaciones anuales automáticas en los próximos años. Las emisiones de GEI procedentes de la agricultura están dominados por el metano (CH4) y el óxido nitroso (N2O), provenientes de la producción de cultivos y la ganadería y de las actividades de gestión. La fuente de emisiones de dióxido de carbono (CO2) son principalmente las de la cultivación de suelos orgánicos, presentados en el dominio de las Emisiones del uso de la tierra de FAOSTAT consistentemente con el IPCC.</t>
+  </si>
+  <si>
+    <t>RECURSOS HÍDRICOS, USOS DE AGUA, DESARROLLO DEL RIEGO Y DRENAJE, AGRICULTURA DE CONSERVACIÓN Y CAPTACIÓN DE AGUA</t>
+  </si>
+  <si>
+    <t>Recopilar, analizar y suministrar información sobre recursos hídricos, usos del agua y la gestión del agua en el sector rural con especial énfasis en los países de África, Asia, América Latina y el Caribe a través de AQUASTAT que es el sistema de información global sobre el uso del agua en la agricultura y el medio rural, desarrollado por la División de Tierras y Aguas de la FAO el cual presenta indicadores de la población que utiliza fuentes mejoradas de agua. suelo afectado por el agua y acceso de la población al agua potable así como las enfermedades transmitidas por el agua .</t>
+  </si>
+  <si>
+    <t>País * Período * Año *M3 * Habitantes * Ha * Cultivo * Uso del agua * Tipo de riego</t>
+  </si>
+  <si>
+    <t>Agua superficial y subterránea producida al interior del País * Recursos hidrícos internos renovables totales * Precipitación media anual en profundidad y volumen * Índice nacional de precipitación (NRI) * Agua superficial producida * Agua superficial caudal de los ríos fronterizos * Agua superficial que sale del país * Agua subterránea que entra al País * Agua subterránea que sale del País * Recursos hídricos renovables externos * Extracción de agua agrícola, industrial y municipal</t>
+  </si>
+  <si>
+    <t>http://www.fao.org/nr/water/aquastat/data/query/results.html</t>
+  </si>
+  <si>
+    <t>MEDIO AMBIENTE Y SALUD</t>
+  </si>
+  <si>
+    <t>País * Período * Año * Superficie salinizada * Agua potable * Enfermedades</t>
+  </si>
+  <si>
+    <t>Superficie salinizada por el riego * Superficie equipada para el riego salinizada * Superficie encharcada por el riego * Ocurrencia de inundación (WRI) * Población con acceso al agua potable saludable (JMP) * Población rural con acceso a agua potable saludable * Población urbana con acceso a agua potable saludable * Población afectada por enfermedades relacionadas con el agua</t>
+  </si>
+  <si>
+    <t>SEGURIDAD ALIMENTARIA 1998- 2017</t>
+  </si>
+  <si>
+    <t>Presentar indicadores de la población y sus recursos agrícolas aprovechados para desarrollo humano, la base de datos proporciona una plataforma donde se puede encontrar todas las referencias sobre el reconocimiento constitucional del derecho a una alimentación adecuada a nivel nacional, como también la situación de la ratificación de algunos instrumentos internacionales clave.</t>
+  </si>
+  <si>
+    <t>Año * Cultivos * Población Urbana * Tipo población * Género * Personas subnutridas</t>
+  </si>
+  <si>
+    <t>Aprovechamiento de tierras * Población total * Población urbana * Población rural * Densidad población * Superficie total * Superficie arable * Cultivos permanentes * % superficie total cultivada * Producto interno bruto (PIB) * Contribución de la agricultura al PIB * Índice de desarrollo humano IDH * Índice de desigualdad de género (IDG) * Prevalencia de la subalimentación * Número de personas subnutridas 1963 a 2017</t>
+  </si>
+  <si>
+    <t>INDICE DE DESIGUALDAD DE GÉNERO (IDG) 1998-2017</t>
+  </si>
+  <si>
+    <t>Presentar el Índice de Desigualdad de Género (IDG) se ha creado en el mismo marco que el Índice de Desarrollo Humano (IDH) — para exponer de una mejor forma las diferencias en la distribución de los logros entre mujeres y hombres. Mide los costes de desarrollo humano de la desigualdad de género; por lo tanto, cuanto mayor sea el valor del IDG más desigualdad habrá entre mujeres y hombres. Los países con una desigualdad de género alta también experimentan una distribución del desarrollo humano más desigual.</t>
+  </si>
+  <si>
+    <t>BASE DE DATOS DE DESASTRES 1910-2016</t>
+  </si>
+  <si>
+    <t>THE INTERNATIONAL EMERGENCY DISASTERS DATABASE (EMDAT)</t>
+  </si>
+  <si>
+    <t>Ofrecer un resumen "pre-diseñado" y el perfil del país. El perfil incluye un resumen de los desastres en función de tres indicadores, así como los desastres superiores de cada indicador (hasta 10 Desastres).La opción de utilizar la búsqueda avanzada ofrece La información más detallada por Grupo/Subgrupo/tipo y subtipo de desastre por Continente, Región o Ciudad.</t>
+  </si>
+  <si>
+    <t>Año * Tipo de desastre * Ocurrencia * Muerte * Lesionados * Afectados * Sin hogar * Afectados * Daños</t>
+  </si>
+  <si>
+    <t>Datos de desastres tecnológicos y naturales presentados en Costa Rica, desde 1910 a 2016</t>
+  </si>
+  <si>
+    <t>http://www.emdat.be/country_profile/index.html</t>
+  </si>
+  <si>
+    <t>PROGRESOS EN MATERIA DE SANEAMIENTO Y AGUA POTABLE EN AMÉRICA LATINA Y EL CARIBE-ACTUALIZACION DEL ODM</t>
+  </si>
+  <si>
+    <t>ORGANIZACIÓN MUNDIAL DE LA SALUD (UNICEF)</t>
+  </si>
+  <si>
+    <t>Actualizar y presentar información de los avances de saneamiento y agua potable para cumplir los Objetivos de Desarrollo del Milenio (ODM)</t>
+  </si>
+  <si>
+    <t>País * Año *Área geográfica * Condiciones instalaciones * Mejoras * Habitantes con Acceso a fuente de agua potable * Categoría de ingreso</t>
+  </si>
+  <si>
+    <t>Proporción de la población que utiliza fuentes mejoradas de abastecimiento de agua potable, por área nacional, urbana y rural * Proporcion de la población que utiliza instalaciones de saneamiento mejoradas por área nacional, urbana y rural</t>
+  </si>
+  <si>
+    <t>http://www.wssinfo.org/fileadmin/user_upload/resources/SWA-country-snapshots-Spanish.pdf</t>
+  </si>
+  <si>
+    <t>ESTADÍSTICAS DE LA ACTIVIDAD AGROPECUARIA, DESARROLLO RURAL Y SEGURIDAD ALIMENTARIA Y NUTRICIONAL 1980-2014</t>
+  </si>
+  <si>
+    <t>Presentar base de datos estadísticas de actividad agropecuaria, desarrollo rural y seguridad alimentaria y nutricional.</t>
+  </si>
+  <si>
+    <t>Año * País * Producto agrícola * País * Superficie * Actividad económica * Gasto público * Precio * Comercio exterior * Educación * Empleo * Ingresos * Pobreza * Vivienda * Gasto público</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS SIAGRO-GIPP * Actividad agropecuaria * Desarrollo rural * Seguridad alimentaria y nutricional</t>
+  </si>
+  <si>
+    <t>http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/estadisticasIndicadores.asp?idioma=e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="MMM\-D"/>
@@ -3593,8 +3811,9 @@
     <numFmt numFmtId="168" formatCode="MMM\-DD"/>
     <numFmt numFmtId="169" formatCode="M/YYYY"/>
     <numFmt numFmtId="170" formatCode="MM/YYYY"/>
+    <numFmt numFmtId="171" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3662,6 +3881,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="&quot;Cambria&quot;"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3824,7 +4049,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3925,6 +4150,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3937,11 +4166,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4013,7 +4242,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4022,6 +4251,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4447,7 +4680,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z218"/>
+  <dimension ref="A1:Z240"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -8994,7 +9227,7 @@
       <c r="E73" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="25" t="s">
         <v>417</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -9022,7 +9255,7 @@
         <v>211</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="R73" s="14" t="n">
         <v>42585</v>
@@ -9036,7 +9269,7 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="12"/>
@@ -9056,14 +9289,14 @@
       <c r="E74" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="25" t="s">
         <v>417</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -9072,7 +9305,7 @@
         <v>419</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>421</v>
@@ -9084,7 +9317,7 @@
         <v>211</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="R74" s="14" t="n">
         <v>42585</v>
@@ -9098,7 +9331,7 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="12"/>
@@ -9106,7 +9339,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>93</v>
@@ -9118,26 +9351,26 @@
       <c r="E75" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="25" t="s">
         <v>417</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>210</v>
@@ -9160,7 +9393,7 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="12"/>
@@ -9168,7 +9401,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>93</v>
@@ -9181,25 +9414,25 @@
         <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>210</v>
@@ -9208,7 +9441,7 @@
         <v>211</v>
       </c>
       <c r="Q76" s="22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R76" s="14" t="n">
         <v>42586</v>
@@ -9222,7 +9455,7 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="12"/>
@@ -9230,7 +9463,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>93</v>
@@ -9243,25 +9476,25 @@
         <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>102</v>
@@ -9270,7 +9503,7 @@
         <v>261</v>
       </c>
       <c r="Q77" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R77" s="14" t="n">
         <v>42586</v>
@@ -9284,7 +9517,7 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="X77" s="2" t="s">
         <v>264</v>
@@ -9294,7 +9527,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>93</v>
@@ -9307,25 +9540,25 @@
         <v>95</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>210</v>
@@ -9334,7 +9567,7 @@
         <v>211</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="R78" s="14" t="n">
         <v>42589</v>
@@ -9348,7 +9581,7 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="13" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="12"/>
@@ -9356,7 +9589,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>93</v>
@@ -9366,25 +9599,25 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>168</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>141</v>
@@ -9396,7 +9629,7 @@
         <v>332</v>
       </c>
       <c r="Q79" s="13" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="R79" s="14" t="n">
         <v>42589</v>
@@ -9410,7 +9643,7 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="13" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="12"/>
@@ -9418,7 +9651,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>93</v>
@@ -9428,25 +9661,25 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>168</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>421</v>
@@ -9458,7 +9691,7 @@
         <v>332</v>
       </c>
       <c r="Q80" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="R80" s="14" t="n">
         <v>42589</v>
@@ -9472,15 +9705,15 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="25" t="s">
-        <v>465</v>
+      <c r="A81" s="26" t="s">
+        <v>466</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>93</v>
@@ -9490,28 +9723,28 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>210</v>
@@ -9520,7 +9753,7 @@
         <v>211</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="R81" s="14" t="n">
         <v>42590</v>
@@ -9534,7 +9767,7 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X81" s="2"/>
       <c r="Y81" s="12"/>
@@ -9542,7 +9775,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>93</v>
@@ -9555,25 +9788,25 @@
         <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>102</v>
@@ -9582,7 +9815,7 @@
         <v>332</v>
       </c>
       <c r="Q82" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="R82" s="14" t="n">
         <v>42590</v>
@@ -9596,7 +9829,7 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" s="12"/>
@@ -9604,7 +9837,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>93</v>
@@ -9614,25 +9847,25 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>141</v>
@@ -9644,7 +9877,7 @@
         <v>211</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R83" s="14" t="n">
         <v>42591</v>
@@ -9653,12 +9886,12 @@
         <v>133</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="X83" s="2"/>
       <c r="Y83" s="12"/>
@@ -9666,7 +9899,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>93</v>
@@ -9679,22 +9912,22 @@
         <v>215</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>141</v>
@@ -9706,7 +9939,7 @@
         <v>211</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R84" s="14" t="n">
         <v>42591</v>
@@ -9720,7 +9953,7 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" s="12"/>
@@ -9728,7 +9961,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>93</v>
@@ -9741,22 +9974,22 @@
         <v>215</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>141</v>
@@ -9768,7 +10001,7 @@
         <v>211</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R85" s="14" t="n">
         <v>42592</v>
@@ -9782,7 +10015,7 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" s="12"/>
@@ -9790,7 +10023,7 @@
     </row>
     <row r="86" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>93</v>
@@ -9803,25 +10036,25 @@
         <v>215</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>210</v>
@@ -9830,7 +10063,7 @@
         <v>211</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R86" s="14" t="n">
         <v>42592</v>
@@ -9844,7 +10077,7 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="X86" s="2"/>
       <c r="Y86" s="12"/>
@@ -9852,7 +10085,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>93</v>
@@ -9865,22 +10098,22 @@
         <v>215</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>141</v>
@@ -9892,7 +10125,7 @@
         <v>211</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R87" s="14" t="n">
         <v>42592</v>
@@ -9906,7 +10139,7 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="X87" s="2"/>
       <c r="Y87" s="12"/>
@@ -9914,7 +10147,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>93</v>
@@ -9927,22 +10160,22 @@
         <v>215</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>141</v>
@@ -9954,7 +10187,7 @@
         <v>211</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R88" s="14" t="n">
         <v>42592</v>
@@ -9963,12 +10196,12 @@
         <v>133</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" s="12"/>
@@ -9976,7 +10209,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>93</v>
@@ -9989,22 +10222,22 @@
         <v>215</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>141</v>
@@ -10016,7 +10249,7 @@
         <v>211</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R89" s="14" t="n">
         <v>42593</v>
@@ -10030,133 +10263,133 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
       <c r="W89" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" s="12"/>
       <c r="Z89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="27" t="s">
+      <c r="A90" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="F90" s="27" t="s">
+      <c r="B90" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="D90" s="28"/>
+      <c r="E90" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="G90" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H90" s="27" t="s">
+      <c r="H90" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="M90" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="N90" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="O90" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="P90" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q90" s="28" t="s">
         <v>516</v>
-      </c>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="M90" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="N90" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="O90" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P90" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q90" s="28" t="s">
-        <v>520</v>
       </c>
       <c r="R90" s="29" t="n">
         <v>42603</v>
       </c>
-      <c r="S90" s="27" t="s">
+      <c r="S90" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="T90" s="27" t="n">
+      <c r="T90" s="28" t="n">
         <v>2014</v>
       </c>
-      <c r="U90" s="27"/>
-      <c r="V90" s="27"/>
-      <c r="W90" s="28" t="s">
+      <c r="U90" s="28"/>
+      <c r="V90" s="28"/>
+      <c r="W90" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="X90" s="27"/>
+      <c r="X90" s="28"/>
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="B91" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="31" t="s">
+      <c r="B91" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31" t="s">
+      <c r="D91" s="32"/>
+      <c r="E91" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F91" s="31" t="s">
+      <c r="F91" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="G91" s="31" t="s">
+      <c r="G91" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H91" s="31" t="s">
+      <c r="H91" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31" t="s">
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="M91" s="31" t="s">
+      <c r="M91" s="32" t="s">
         <v>525</v>
       </c>
-      <c r="N91" s="31" t="s">
+      <c r="N91" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="O91" s="31" t="s">
+      <c r="O91" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="P91" s="31" t="s">
+      <c r="P91" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="Q91" s="32" t="s">
+      <c r="Q91" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="R91" s="33" t="n">
+      <c r="R91" s="34" t="n">
         <v>42603</v>
       </c>
-      <c r="S91" s="31" t="s">
+      <c r="S91" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="T91" s="31" t="s">
+      <c r="T91" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="U91" s="31"/>
-      <c r="V91" s="31"/>
-      <c r="W91" s="32" t="s">
+      <c r="U91" s="32"/>
+      <c r="V91" s="32"/>
+      <c r="W91" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="X91" s="31"/>
+      <c r="X91" s="32"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
     </row>
@@ -10210,7 +10443,7 @@
       <c r="S92" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="T92" s="34" t="n">
+      <c r="T92" s="35" t="n">
         <v>42537</v>
       </c>
       <c r="U92" s="15"/>
@@ -10551,25 +10784,25 @@
         <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>562</v>
+        <v>446</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>210</v>
@@ -10578,7 +10811,7 @@
         <v>211</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>562</v>
+        <v>446</v>
       </c>
       <c r="R98" s="14" t="n">
         <v>42606</v>
@@ -10592,7 +10825,7 @@
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="X98" s="2"/>
       <c r="Y98" s="12"/>
@@ -10600,7 +10833,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>93</v>
@@ -10613,25 +10846,25 @@
         <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>562</v>
+        <v>446</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="M99" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="N99" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>210</v>
@@ -10640,7 +10873,7 @@
         <v>211</v>
       </c>
       <c r="Q99" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="R99" s="14" t="n">
         <v>42607</v>
@@ -10654,7 +10887,7 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="X99" s="2"/>
       <c r="Y99" s="12"/>
@@ -10662,7 +10895,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -10675,25 +10908,25 @@
         <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="M100" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="N100" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>102</v>
@@ -10702,7 +10935,7 @@
         <v>332</v>
       </c>
       <c r="Q100" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R100" s="14" t="n">
         <v>42607</v>
@@ -10716,7 +10949,7 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" s="12"/>
@@ -10724,7 +10957,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>93</v>
@@ -10737,25 +10970,25 @@
         <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="M101" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="N101" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>102</v>
@@ -10764,7 +10997,7 @@
         <v>332</v>
       </c>
       <c r="Q101" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R101" s="14" t="n">
         <v>42607</v>
@@ -10778,7 +11011,7 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" s="12"/>
@@ -10786,7 +11019,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>93</v>
@@ -10799,25 +11032,25 @@
         <v>416</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G102" s="15" t="s">
         <v>97</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="M102" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="M102" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="N102" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O102" s="15" t="s">
         <v>210</v>
@@ -10826,7 +11059,7 @@
         <v>211</v>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="R102" s="19" t="n">
         <v>42608</v>
@@ -10848,7 +11081,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>93</v>
@@ -10861,13 +11094,13 @@
         <v>416</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G103" s="15" t="s">
         <v>97</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
@@ -10879,7 +11112,7 @@
         <v>586</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O103" s="15" t="s">
         <v>210</v>
@@ -10888,7 +11121,7 @@
         <v>211</v>
       </c>
       <c r="Q103" s="15" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="R103" s="19" t="n">
         <v>42608</v>
@@ -11339,7 +11572,7 @@
         <v>133</v>
       </c>
       <c r="T110" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U110" s="15"/>
       <c r="V110" s="15"/>
@@ -11385,7 +11618,7 @@
         <v>627</v>
       </c>
       <c r="N111" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O111" s="15" t="s">
         <v>102</v>
@@ -11402,7 +11635,7 @@
       <c r="S111" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T111" s="34" t="n">
+      <c r="T111" s="35" t="n">
         <v>42385</v>
       </c>
       <c r="U111" s="15"/>
@@ -11466,7 +11699,7 @@
       <c r="S112" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T112" s="34" t="n">
+      <c r="T112" s="35" t="n">
         <v>42567</v>
       </c>
       <c r="U112" s="15"/>
@@ -11529,7 +11762,7 @@
         <v>133</v>
       </c>
       <c r="T113" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U113" s="15"/>
       <c r="V113" s="15"/>
@@ -11575,7 +11808,7 @@
         <v>648</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O114" s="15" t="s">
         <v>102</v>
@@ -11718,7 +11951,7 @@
       <c r="S116" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T116" s="34" t="n">
+      <c r="T116" s="35" t="n">
         <v>42444</v>
       </c>
       <c r="U116" s="15"/>
@@ -11780,7 +12013,7 @@
       <c r="S117" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T117" s="34" t="n">
+      <c r="T117" s="35" t="n">
         <v>42564</v>
       </c>
       <c r="U117" s="15"/>
@@ -11842,7 +12075,7 @@
       <c r="S118" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T118" s="34" t="n">
+      <c r="T118" s="35" t="n">
         <v>42474</v>
       </c>
       <c r="U118" s="15"/>
@@ -11874,7 +12107,7 @@
       <c r="G119" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H119" s="35" t="s">
+      <c r="H119" s="36" t="s">
         <v>674</v>
       </c>
       <c r="I119" s="15"/>
@@ -11883,7 +12116,7 @@
       <c r="L119" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="M119" s="35" t="s">
+      <c r="M119" s="36" t="s">
         <v>676</v>
       </c>
       <c r="N119" s="15" t="s">
@@ -11966,7 +12199,7 @@
       <c r="S120" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="T120" s="34" t="n">
+      <c r="T120" s="35" t="n">
         <v>42598</v>
       </c>
       <c r="U120" s="15"/>
@@ -12030,7 +12263,7 @@
       <c r="S121" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T121" s="34" t="n">
+      <c r="T121" s="35" t="n">
         <v>42506</v>
       </c>
       <c r="U121" s="15"/>
@@ -12094,7 +12327,7 @@
       <c r="S122" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="T122" s="34" t="n">
+      <c r="T122" s="35" t="n">
         <v>42598</v>
       </c>
       <c r="U122" s="15"/>
@@ -12109,67 +12342,67 @@
       <c r="Z122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="36" t="s">
+      <c r="A123" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="38" t="s">
         <v>93</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37" t="s">
+      <c r="D123" s="38"/>
+      <c r="E123" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F123" s="37" t="s">
+      <c r="F123" s="38" t="s">
         <v>685</v>
       </c>
-      <c r="G123" s="37" t="s">
+      <c r="G123" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H123" s="37" t="s">
+      <c r="H123" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="37"/>
-      <c r="L123" s="37" t="s">
+      <c r="I123" s="38"/>
+      <c r="J123" s="38"/>
+      <c r="K123" s="38"/>
+      <c r="L123" s="38" t="s">
         <v>700</v>
       </c>
-      <c r="M123" s="37" t="s">
+      <c r="M123" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="N123" s="37" t="s">
+      <c r="N123" s="38" t="s">
         <v>695</v>
       </c>
-      <c r="O123" s="37" t="s">
+      <c r="O123" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P123" s="37" t="s">
+      <c r="P123" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="Q123" s="32" t="s">
+      <c r="Q123" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="R123" s="38" t="n">
+      <c r="R123" s="39" t="n">
         <v>42611</v>
       </c>
-      <c r="S123" s="37" t="s">
+      <c r="S123" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="T123" s="39" t="n">
+      <c r="T123" s="40" t="n">
         <v>42384</v>
       </c>
-      <c r="U123" s="37"/>
-      <c r="V123" s="37"/>
-      <c r="W123" s="32" t="s">
+      <c r="U123" s="38"/>
+      <c r="V123" s="38"/>
+      <c r="W123" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="X123" s="37" t="s">
+      <c r="X123" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="Y123" s="37"/>
+      <c r="Y123" s="38"/>
       <c r="Z123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12222,7 +12455,7 @@
       <c r="S124" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T124" s="34" t="n">
+      <c r="T124" s="35" t="n">
         <v>42658</v>
       </c>
       <c r="U124" s="15"/>
@@ -12284,7 +12517,7 @@
       <c r="S125" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T125" s="34" t="n">
+      <c r="T125" s="35" t="n">
         <v>42658</v>
       </c>
       <c r="U125" s="15"/>
@@ -12346,7 +12579,7 @@
       <c r="S126" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T126" s="40" t="n">
+      <c r="T126" s="41" t="n">
         <v>42556</v>
       </c>
       <c r="U126" s="15"/>
@@ -12368,7 +12601,7 @@
         <v>93</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15" t="s">
@@ -12410,7 +12643,7 @@
       <c r="S127" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T127" s="40" t="n">
+      <c r="T127" s="41" t="n">
         <v>42556</v>
       </c>
       <c r="U127" s="15"/>
@@ -12496,7 +12729,7 @@
         <v>93</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15" t="s">
@@ -12667,7 +12900,7 @@
         <v>133</v>
       </c>
       <c r="T131" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U131" s="15"/>
       <c r="V131" s="15"/>
@@ -12729,7 +12962,7 @@
         <v>133</v>
       </c>
       <c r="T132" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U132" s="15"/>
       <c r="V132" s="15"/>
@@ -12950,7 +13183,7 @@
       <c r="G136" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H136" s="35" t="s">
+      <c r="H136" s="36" t="s">
         <v>759</v>
       </c>
       <c r="I136" s="15"/>
@@ -13401,7 +13634,7 @@
       <c r="L143" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="M143" s="35" t="s">
+      <c r="M143" s="36" t="s">
         <v>805</v>
       </c>
       <c r="N143" s="15" t="s">
@@ -13454,7 +13687,7 @@
       <c r="G144" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H144" s="35" t="s">
+      <c r="H144" s="36" t="s">
         <v>808</v>
       </c>
       <c r="I144" s="15"/>
@@ -13547,7 +13780,7 @@
         <v>133</v>
       </c>
       <c r="T145" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U145" s="15"/>
       <c r="V145" s="15"/>
@@ -13561,61 +13794,61 @@
       <c r="Z145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="36" t="s">
+      <c r="A146" s="37" t="s">
         <v>819</v>
       </c>
-      <c r="B146" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C146" s="37" t="s">
+      <c r="B146" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C146" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37" t="s">
+      <c r="D146" s="38"/>
+      <c r="E146" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F146" s="37" t="s">
+      <c r="F146" s="38" t="s">
         <v>820</v>
       </c>
-      <c r="G146" s="37" t="s">
+      <c r="G146" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H146" s="37" t="s">
+      <c r="H146" s="38" t="s">
         <v>821</v>
       </c>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="37"/>
-      <c r="L146" s="37" t="s">
+      <c r="I146" s="38"/>
+      <c r="J146" s="38"/>
+      <c r="K146" s="38"/>
+      <c r="L146" s="38" t="s">
         <v>822</v>
       </c>
-      <c r="M146" s="37" t="s">
+      <c r="M146" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="N146" s="37" t="s">
+      <c r="N146" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="O146" s="37" t="s">
+      <c r="O146" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P146" s="37" t="s">
+      <c r="P146" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="Q146" s="32" t="s">
+      <c r="Q146" s="33" t="s">
         <v>824</v>
       </c>
-      <c r="R146" s="38" t="n">
+      <c r="R146" s="39" t="n">
         <v>42618</v>
       </c>
-      <c r="S146" s="37" t="s">
+      <c r="S146" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="T146" s="37" t="n">
+      <c r="T146" s="38" t="n">
         <v>2016</v>
       </c>
-      <c r="U146" s="37"/>
-      <c r="V146" s="37"/>
-      <c r="W146" s="32" t="s">
+      <c r="U146" s="38"/>
+      <c r="V146" s="38"/>
+      <c r="W146" s="33" t="s">
         <v>825</v>
       </c>
       <c r="X146" s="15" t="s">
@@ -13628,61 +13861,61 @@
       <c r="A147" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B147" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C147" s="37" t="s">
+      <c r="B147" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C147" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="37"/>
+      <c r="D147" s="38"/>
       <c r="E147" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G147" s="37" t="s">
+      <c r="G147" s="38" t="s">
         <v>97</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="I147" s="37"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="37"/>
-      <c r="L147" s="37" t="s">
+      <c r="I147" s="38"/>
+      <c r="J147" s="38"/>
+      <c r="K147" s="38"/>
+      <c r="L147" s="38" t="s">
         <v>827</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="N147" s="36" t="s">
+      <c r="N147" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O147" s="37" t="s">
+      <c r="O147" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P147" s="37" t="s">
+      <c r="P147" s="38" t="s">
         <v>122</v>
       </c>
       <c r="Q147" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="R147" s="38" t="n">
+      <c r="R147" s="39" t="n">
         <v>42619</v>
       </c>
-      <c r="S147" s="37" t="s">
+      <c r="S147" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="T147" s="37" t="s">
+      <c r="T147" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="U147" s="37"/>
-      <c r="V147" s="37"/>
+      <c r="U147" s="38"/>
+      <c r="V147" s="38"/>
       <c r="W147" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="X147" s="41"/>
+      <c r="X147" s="42"/>
       <c r="Y147" s="12"/>
       <c r="Z147" s="12"/>
     </row>
@@ -13690,61 +13923,61 @@
       <c r="A148" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B148" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C148" s="37" t="s">
+      <c r="B148" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D148" s="37"/>
+      <c r="D148" s="38"/>
       <c r="E148" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G148" s="37" t="s">
+      <c r="G148" s="38" t="s">
         <v>97</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="37"/>
-      <c r="L148" s="37" t="s">
+      <c r="I148" s="38"/>
+      <c r="J148" s="38"/>
+      <c r="K148" s="38"/>
+      <c r="L148" s="38" t="s">
         <v>831</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="N148" s="36" t="s">
+      <c r="N148" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O148" s="37" t="s">
+      <c r="O148" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P148" s="37" t="s">
+      <c r="P148" s="38" t="s">
         <v>122</v>
       </c>
       <c r="Q148" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="R148" s="38" t="n">
+      <c r="R148" s="39" t="n">
         <v>42619</v>
       </c>
-      <c r="S148" s="37" t="s">
+      <c r="S148" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="T148" s="37" t="s">
+      <c r="T148" s="38" t="s">
         <v>834</v>
       </c>
-      <c r="U148" s="37"/>
-      <c r="V148" s="37"/>
+      <c r="U148" s="38"/>
+      <c r="V148" s="38"/>
       <c r="W148" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="X148" s="41"/>
+      <c r="X148" s="42"/>
       <c r="Y148" s="12"/>
       <c r="Z148" s="12"/>
     </row>
@@ -13752,61 +13985,61 @@
       <c r="A149" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="B149" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C149" s="37" t="s">
+      <c r="B149" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C149" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D149" s="37"/>
+      <c r="D149" s="38"/>
       <c r="E149" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F149" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G149" s="37" t="s">
+      <c r="G149" s="38" t="s">
         <v>108</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="I149" s="37"/>
-      <c r="J149" s="37"/>
-      <c r="K149" s="37"/>
-      <c r="L149" s="37" t="s">
+      <c r="I149" s="38"/>
+      <c r="J149" s="38"/>
+      <c r="K149" s="38"/>
+      <c r="L149" s="38" t="s">
         <v>837</v>
       </c>
-      <c r="M149" s="37" t="s">
+      <c r="M149" s="38" t="s">
         <v>838</v>
       </c>
-      <c r="N149" s="37" t="s">
+      <c r="N149" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="O149" s="37" t="s">
+      <c r="O149" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P149" s="37" t="s">
+      <c r="P149" s="38" t="s">
         <v>122</v>
       </c>
       <c r="Q149" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="R149" s="38" t="n">
+      <c r="R149" s="39" t="n">
         <v>42619</v>
       </c>
-      <c r="S149" s="37" t="s">
+      <c r="S149" s="38" t="s">
         <v>841</v>
       </c>
-      <c r="T149" s="37" t="n">
+      <c r="T149" s="38" t="n">
         <v>2012</v>
       </c>
-      <c r="U149" s="37"/>
-      <c r="V149" s="37"/>
+      <c r="U149" s="38"/>
+      <c r="V149" s="38"/>
       <c r="W149" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="X149" s="41"/>
+      <c r="X149" s="42"/>
       <c r="Y149" s="12"/>
       <c r="Z149" s="12"/>
     </row>
@@ -13814,61 +14047,61 @@
       <c r="A150" s="15" t="s">
         <v>842</v>
       </c>
-      <c r="B150" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C150" s="37" t="s">
+      <c r="B150" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C150" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="D150" s="37"/>
+      <c r="D150" s="38"/>
       <c r="E150" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F150" s="37" t="s">
+      <c r="F150" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G150" s="37" t="s">
+      <c r="G150" s="38" t="s">
         <v>108</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="I150" s="37"/>
-      <c r="J150" s="37"/>
-      <c r="K150" s="37"/>
-      <c r="L150" s="37" t="s">
+      <c r="I150" s="38"/>
+      <c r="J150" s="38"/>
+      <c r="K150" s="38"/>
+      <c r="L150" s="38" t="s">
         <v>844</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="N150" s="37" t="s">
+      <c r="N150" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="O150" s="37" t="s">
+      <c r="O150" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P150" s="37" t="s">
+      <c r="P150" s="38" t="s">
         <v>122</v>
       </c>
       <c r="Q150" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="R150" s="38" t="n">
+      <c r="R150" s="39" t="n">
         <v>42619</v>
       </c>
-      <c r="S150" s="37" t="s">
+      <c r="S150" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="T150" s="37" t="n">
+      <c r="T150" s="38" t="n">
         <v>2013</v>
       </c>
-      <c r="U150" s="37"/>
+      <c r="U150" s="38"/>
       <c r="V150" s="22"/>
       <c r="W150" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="X150" s="41"/>
+      <c r="X150" s="42"/>
       <c r="Y150" s="12"/>
       <c r="Z150" s="12"/>
     </row>
@@ -13886,7 +14119,7 @@
       <c r="E151" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F151" s="37" t="s">
+      <c r="F151" s="38" t="s">
         <v>117</v>
       </c>
       <c r="G151" s="15" t="s">
@@ -13898,10 +14131,10 @@
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
       <c r="K151" s="15"/>
-      <c r="L151" s="37" t="s">
+      <c r="L151" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="M151" s="37" t="s">
+      <c r="M151" s="38" t="s">
         <v>850</v>
       </c>
       <c r="N151" s="15" t="s">
@@ -13916,13 +14149,13 @@
       <c r="Q151" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="R151" s="38" t="n">
+      <c r="R151" s="39" t="n">
         <v>42619</v>
       </c>
       <c r="S151" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T151" s="37" t="n">
+      <c r="T151" s="38" t="n">
         <v>2014</v>
       </c>
       <c r="U151" s="15"/>
@@ -13948,7 +14181,7 @@
       <c r="E152" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F152" s="37" t="s">
+      <c r="F152" s="38" t="s">
         <v>117</v>
       </c>
       <c r="G152" s="15" t="s">
@@ -13960,7 +14193,7 @@
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
       <c r="K152" s="15"/>
-      <c r="L152" s="35" t="s">
+      <c r="L152" s="36" t="s">
         <v>854</v>
       </c>
       <c r="M152" s="15" t="s">
@@ -13978,7 +14211,7 @@
       <c r="Q152" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="R152" s="38" t="n">
+      <c r="R152" s="39" t="n">
         <v>42619</v>
       </c>
       <c r="S152" s="15" t="s">
@@ -14010,7 +14243,7 @@
       <c r="E153" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F153" s="37" t="s">
+      <c r="F153" s="38" t="s">
         <v>117</v>
       </c>
       <c r="G153" s="15" t="s">
@@ -14022,7 +14255,7 @@
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
       <c r="K153" s="15"/>
-      <c r="L153" s="35" t="s">
+      <c r="L153" s="36" t="s">
         <v>854</v>
       </c>
       <c r="M153" s="15" t="s">
@@ -14040,7 +14273,7 @@
       <c r="Q153" s="13" t="s">
         <v>857</v>
       </c>
-      <c r="R153" s="38" t="n">
+      <c r="R153" s="39" t="n">
         <v>42619</v>
       </c>
       <c r="S153" s="15" t="s">
@@ -14072,7 +14305,7 @@
       <c r="E154" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F154" s="37" t="s">
+      <c r="F154" s="38" t="s">
         <v>117</v>
       </c>
       <c r="G154" s="15" t="s">
@@ -14102,7 +14335,7 @@
       <c r="Q154" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="R154" s="38" t="n">
+      <c r="R154" s="39" t="n">
         <v>42619</v>
       </c>
       <c r="S154" s="15" t="s">
@@ -14134,7 +14367,7 @@
       <c r="E155" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F155" s="37" t="s">
+      <c r="F155" s="38" t="s">
         <v>117</v>
       </c>
       <c r="G155" s="15" t="s">
@@ -14164,7 +14397,7 @@
       <c r="Q155" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="R155" s="38" t="n">
+      <c r="R155" s="39" t="n">
         <v>42619</v>
       </c>
       <c r="S155" s="15" t="s">
@@ -14196,7 +14429,7 @@
       <c r="E156" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F156" s="37" t="s">
+      <c r="F156" s="38" t="s">
         <v>117</v>
       </c>
       <c r="G156" s="15" t="s">
@@ -14223,16 +14456,16 @@
       <c r="P156" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="Q156" s="37" t="s">
+      <c r="Q156" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="R156" s="38" t="n">
+      <c r="R156" s="39" t="n">
         <v>42619</v>
       </c>
       <c r="S156" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T156" s="34" t="n">
+      <c r="T156" s="35" t="n">
         <v>42416</v>
       </c>
       <c r="U156" s="15"/>
@@ -14288,7 +14521,7 @@
       <c r="Q157" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="R157" s="38" t="n">
+      <c r="R157" s="39" t="n">
         <v>42619</v>
       </c>
       <c r="S157" s="15" t="s">
@@ -14307,7 +14540,7 @@
       <c r="Z157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="36" t="s">
+      <c r="A158" s="37" t="s">
         <v>873</v>
       </c>
       <c r="B158" s="15" t="s">
@@ -14320,7 +14553,7 @@
       <c r="E158" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F158" s="37" t="s">
+      <c r="F158" s="38" t="s">
         <v>874</v>
       </c>
       <c r="G158" s="15" t="s">
@@ -14356,12 +14589,12 @@
       <c r="S158" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T158" s="34" t="n">
+      <c r="T158" s="35" t="n">
         <v>42506</v>
       </c>
       <c r="U158" s="15"/>
       <c r="V158" s="15"/>
-      <c r="W158" s="32" t="s">
+      <c r="W158" s="33" t="s">
         <v>879</v>
       </c>
       <c r="X158" s="15"/>
@@ -14382,7 +14615,7 @@
       <c r="E159" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F159" s="37" t="s">
+      <c r="F159" s="38" t="s">
         <v>874</v>
       </c>
       <c r="G159" s="15" t="s">
@@ -14401,7 +14634,7 @@
         <v>883</v>
       </c>
       <c r="N159" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O159" s="15" t="s">
         <v>102</v>
@@ -14418,12 +14651,12 @@
       <c r="S159" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="T159" s="34" t="n">
+      <c r="T159" s="35" t="n">
         <v>42505</v>
       </c>
       <c r="U159" s="15"/>
       <c r="V159" s="15"/>
-      <c r="W159" s="28" t="s">
+      <c r="W159" s="30" t="s">
         <v>879</v>
       </c>
       <c r="X159" s="15"/>
@@ -14444,7 +14677,7 @@
       <c r="E160" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F160" s="37" t="s">
+      <c r="F160" s="38" t="s">
         <v>874</v>
       </c>
       <c r="G160" s="15" t="s">
@@ -14463,7 +14696,7 @@
         <v>883</v>
       </c>
       <c r="N160" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O160" s="15" t="s">
         <v>102</v>
@@ -14480,12 +14713,12 @@
       <c r="S160" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="T160" s="34" t="n">
+      <c r="T160" s="35" t="n">
         <v>42505</v>
       </c>
       <c r="U160" s="15"/>
       <c r="V160" s="15"/>
-      <c r="W160" s="28" t="s">
+      <c r="W160" s="30" t="s">
         <v>879</v>
       </c>
       <c r="X160" s="15"/>
@@ -14506,7 +14739,7 @@
       <c r="E161" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F161" s="37" t="s">
+      <c r="F161" s="38" t="s">
         <v>886</v>
       </c>
       <c r="G161" s="15" t="s">
@@ -14542,7 +14775,7 @@
       <c r="S161" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T161" s="40" t="n">
+      <c r="T161" s="41" t="n">
         <v>42648</v>
       </c>
       <c r="U161" s="15"/>
@@ -14570,7 +14803,7 @@
       <c r="E162" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F162" s="37" t="s">
+      <c r="F162" s="38" t="s">
         <v>886</v>
       </c>
       <c r="G162" s="15" t="s">
@@ -14585,7 +14818,7 @@
       <c r="L162" s="15" t="s">
         <v>894</v>
       </c>
-      <c r="M162" s="35" t="s">
+      <c r="M162" s="36" t="s">
         <v>895</v>
       </c>
       <c r="N162" s="15" t="s">
@@ -14597,7 +14830,7 @@
       <c r="P162" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="Q162" s="37" t="s">
+      <c r="Q162" s="38" t="s">
         <v>886</v>
       </c>
       <c r="R162" s="19" t="n">
@@ -14606,7 +14839,7 @@
       <c r="S162" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T162" s="40" t="n">
+      <c r="T162" s="41" t="n">
         <v>42683</v>
       </c>
       <c r="U162" s="15"/>
@@ -14668,12 +14901,12 @@
       <c r="S163" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T163" s="34" t="n">
+      <c r="T163" s="35" t="n">
         <v>42598</v>
       </c>
       <c r="U163" s="15"/>
       <c r="V163" s="15"/>
-      <c r="W163" s="32" t="s">
+      <c r="W163" s="33" t="s">
         <v>903</v>
       </c>
       <c r="X163" s="15"/>
@@ -14700,7 +14933,7 @@
       <c r="G164" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H164" s="37" t="s">
+      <c r="H164" s="38" t="s">
         <v>906</v>
       </c>
       <c r="I164" s="15"/>
@@ -14730,12 +14963,12 @@
       <c r="S164" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="T164" s="34" t="n">
+      <c r="T164" s="35" t="n">
         <v>42567</v>
       </c>
       <c r="U164" s="15"/>
       <c r="V164" s="15"/>
-      <c r="W164" s="42" t="s">
+      <c r="W164" s="43" t="s">
         <v>910</v>
       </c>
       <c r="X164" s="15"/>
@@ -14762,7 +14995,7 @@
       <c r="G165" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H165" s="43" t="s">
+      <c r="H165" s="44" t="s">
         <v>906</v>
       </c>
       <c r="I165" s="15"/>
@@ -14792,12 +15025,12 @@
       <c r="S165" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="T165" s="34" t="n">
+      <c r="T165" s="35" t="n">
         <v>42567</v>
       </c>
       <c r="U165" s="15"/>
       <c r="V165" s="15"/>
-      <c r="W165" s="42" t="s">
+      <c r="W165" s="43" t="s">
         <v>910</v>
       </c>
       <c r="X165" s="15"/>
@@ -14820,7 +15053,7 @@
         <v>914</v>
       </c>
       <c r="G166" s="15"/>
-      <c r="H166" s="43" t="s">
+      <c r="H166" s="44" t="s">
         <v>915</v>
       </c>
       <c r="I166" s="15"/>
@@ -14850,7 +15083,7 @@
       <c r="S166" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T166" s="34" t="n">
+      <c r="T166" s="35" t="n">
         <v>42718</v>
       </c>
       <c r="U166" s="15"/>
@@ -14882,7 +15115,7 @@
       <c r="G167" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H167" s="44" t="s">
+      <c r="H167" s="45" t="s">
         <v>921</v>
       </c>
       <c r="I167" s="15"/>
@@ -14917,7 +15150,7 @@
       </c>
       <c r="U167" s="15"/>
       <c r="V167" s="15"/>
-      <c r="W167" s="45" t="s">
+      <c r="W167" s="46" t="s">
         <v>924</v>
       </c>
       <c r="X167" s="15"/>
@@ -14944,7 +15177,7 @@
       <c r="G168" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="H168" s="44" t="s">
+      <c r="H168" s="45" t="s">
         <v>928</v>
       </c>
       <c r="I168" s="15"/>
@@ -14974,7 +15207,7 @@
       <c r="S168" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T168" s="34" t="n">
+      <c r="T168" s="35" t="n">
         <v>42443</v>
       </c>
       <c r="U168" s="15"/>
@@ -15006,7 +15239,7 @@
         <v>926</v>
       </c>
       <c r="G169" s="15"/>
-      <c r="H169" s="44" t="s">
+      <c r="H169" s="45" t="s">
         <v>933</v>
       </c>
       <c r="I169" s="15"/>
@@ -15036,7 +15269,7 @@
       <c r="S169" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T169" s="34" t="n">
+      <c r="T169" s="35" t="n">
         <v>42716</v>
       </c>
       <c r="U169" s="15"/>
@@ -15068,7 +15301,7 @@
         <v>926</v>
       </c>
       <c r="G170" s="15"/>
-      <c r="H170" s="44" t="s">
+      <c r="H170" s="45" t="s">
         <v>938</v>
       </c>
       <c r="I170" s="15"/>
@@ -15099,7 +15332,7 @@
         <v>133</v>
       </c>
       <c r="T170" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U170" s="15"/>
       <c r="V170" s="15"/>
@@ -15116,61 +15349,61 @@
       <c r="A171" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="B171" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C171" s="37" t="s">
+      <c r="B171" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D171" s="37"/>
+      <c r="D171" s="38"/>
       <c r="E171" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F171" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="G171" s="37" t="s">
+      <c r="G171" s="38" t="s">
         <v>108</v>
       </c>
       <c r="H171" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="I171" s="37"/>
-      <c r="J171" s="37"/>
-      <c r="K171" s="37"/>
-      <c r="L171" s="37" t="s">
+      <c r="I171" s="38"/>
+      <c r="J171" s="38"/>
+      <c r="K171" s="38"/>
+      <c r="L171" s="38" t="s">
         <v>945</v>
       </c>
-      <c r="M171" s="37" t="s">
+      <c r="M171" s="38" t="s">
         <v>946</v>
       </c>
-      <c r="N171" s="37" t="s">
+      <c r="N171" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="O171" s="37" t="s">
+      <c r="O171" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P171" s="37" t="s">
+      <c r="P171" s="38" t="s">
         <v>332</v>
       </c>
       <c r="Q171" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="R171" s="38" t="n">
+      <c r="R171" s="39" t="n">
         <v>42621</v>
       </c>
-      <c r="S171" s="37" t="s">
+      <c r="S171" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="T171" s="37" t="n">
+      <c r="T171" s="38" t="n">
         <v>2011</v>
       </c>
-      <c r="U171" s="37"/>
-      <c r="V171" s="37"/>
+      <c r="U171" s="38"/>
+      <c r="V171" s="38"/>
       <c r="W171" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="X171" s="41"/>
+      <c r="X171" s="42"/>
       <c r="Y171" s="12"/>
       <c r="Z171" s="12"/>
     </row>
@@ -15209,10 +15442,10 @@
       <c r="N172" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O172" s="37" t="s">
+      <c r="O172" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P172" s="37" t="s">
+      <c r="P172" s="38" t="s">
         <v>332</v>
       </c>
       <c r="Q172" s="13" t="s">
@@ -15271,10 +15504,10 @@
       <c r="N173" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O173" s="37" t="s">
+      <c r="O173" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P173" s="37" t="s">
+      <c r="P173" s="38" t="s">
         <v>332</v>
       </c>
       <c r="Q173" s="13" t="s">
@@ -15333,10 +15566,10 @@
       <c r="N174" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O174" s="37" t="s">
+      <c r="O174" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P174" s="37" t="s">
+      <c r="P174" s="38" t="s">
         <v>332</v>
       </c>
       <c r="Q174" s="13" t="s">
@@ -15395,10 +15628,10 @@
       <c r="N175" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O175" s="37" t="s">
+      <c r="O175" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="P175" s="37" t="s">
+      <c r="P175" s="38" t="s">
         <v>332</v>
       </c>
       <c r="Q175" s="13" t="s">
@@ -15436,13 +15669,13 @@
       <c r="E176" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F176" s="37" t="s">
+      <c r="F176" s="38" t="s">
         <v>970</v>
       </c>
       <c r="G176" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H176" s="37" t="s">
+      <c r="H176" s="38" t="s">
         <v>971</v>
       </c>
       <c r="I176" s="15"/>
@@ -15472,12 +15705,12 @@
       <c r="S176" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="T176" s="34" t="n">
+      <c r="T176" s="35" t="n">
         <v>42719</v>
       </c>
       <c r="U176" s="15"/>
       <c r="V176" s="15"/>
-      <c r="W176" s="32" t="s">
+      <c r="W176" s="33" t="s">
         <v>975</v>
       </c>
       <c r="X176" s="15"/>
@@ -15498,13 +15731,13 @@
       <c r="E177" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F177" s="37" t="s">
+      <c r="F177" s="38" t="s">
         <v>977</v>
       </c>
       <c r="G177" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H177" s="43" t="s">
+      <c r="H177" s="44" t="s">
         <v>978</v>
       </c>
       <c r="I177" s="15"/>
@@ -15535,7 +15768,7 @@
         <v>133</v>
       </c>
       <c r="T177" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U177" s="15"/>
       <c r="V177" s="15"/>
@@ -15562,13 +15795,13 @@
       <c r="E178" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F178" s="37" t="s">
+      <c r="F178" s="38" t="s">
         <v>977</v>
       </c>
       <c r="G178" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H178" s="43" t="s">
+      <c r="H178" s="44" t="s">
         <v>978</v>
       </c>
       <c r="I178" s="15"/>
@@ -15599,7 +15832,7 @@
         <v>133</v>
       </c>
       <c r="T178" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U178" s="15"/>
       <c r="V178" s="15"/>
@@ -15613,64 +15846,64 @@
       <c r="Z178" s="12"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="36" t="s">
+      <c r="A179" s="37" t="s">
         <v>982</v>
       </c>
-      <c r="B179" s="37" t="s">
+      <c r="B179" s="38" t="s">
         <v>93</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D179" s="37"/>
-      <c r="E179" s="37" t="s">
+      <c r="D179" s="38"/>
+      <c r="E179" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F179" s="37" t="s">
+      <c r="F179" s="38" t="s">
         <v>983</v>
       </c>
-      <c r="G179" s="37" t="s">
+      <c r="G179" s="38" t="s">
         <v>927</v>
       </c>
-      <c r="H179" s="43" t="s">
+      <c r="H179" s="44" t="s">
         <v>984</v>
       </c>
-      <c r="I179" s="37"/>
-      <c r="J179" s="37"/>
-      <c r="K179" s="37"/>
-      <c r="L179" s="37" t="s">
+      <c r="I179" s="38"/>
+      <c r="J179" s="38"/>
+      <c r="K179" s="38"/>
+      <c r="L179" s="38" t="s">
         <v>985</v>
       </c>
-      <c r="M179" s="46" t="s">
+      <c r="M179" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="N179" s="36" t="s">
+      <c r="N179" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="O179" s="37" t="s">
+      <c r="O179" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="P179" s="37" t="s">
+      <c r="P179" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="Q179" s="37" t="s">
+      <c r="Q179" s="38" t="s">
         <v>983</v>
       </c>
-      <c r="R179" s="38" t="n">
+      <c r="R179" s="39" t="n">
         <v>42622</v>
       </c>
-      <c r="S179" s="37" t="s">
+      <c r="S179" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="T179" s="37" t="n">
+      <c r="T179" s="38" t="n">
         <v>2014</v>
       </c>
-      <c r="U179" s="37"/>
-      <c r="V179" s="37"/>
-      <c r="W179" s="32" t="s">
+      <c r="U179" s="38"/>
+      <c r="V179" s="38"/>
+      <c r="W179" s="33" t="s">
         <v>987</v>
       </c>
-      <c r="X179" s="37"/>
+      <c r="X179" s="38"/>
       <c r="Y179" s="12"/>
       <c r="Z179" s="12"/>
     </row>
@@ -15799,7 +16032,7 @@
       <c r="Z181" s="12"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="32" t="s">
         <v>996</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -15861,7 +16094,7 @@
       <c r="Z182" s="12"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="31" t="s">
+      <c r="A183" s="32" t="s">
         <v>996</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -15923,7 +16156,7 @@
       <c r="Z183" s="12"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="31" t="s">
+      <c r="A184" s="32" t="s">
         <v>1001</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -15985,7 +16218,7 @@
       <c r="Z184" s="12"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="31" t="s">
+      <c r="A185" s="32" t="s">
         <v>1001</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -16047,7 +16280,7 @@
       <c r="Z185" s="12"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="47" t="s">
+      <c r="A186" s="48" t="s">
         <v>1008</v>
       </c>
       <c r="B186" s="15" t="s">
@@ -16075,7 +16308,7 @@
       <c r="L186" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="M186" s="35" t="s">
+      <c r="M186" s="36" t="s">
         <v>1012</v>
       </c>
       <c r="N186" s="15" t="s">
@@ -16107,7 +16340,7 @@
       <c r="Z186" s="12"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="47" t="s">
+      <c r="A187" s="48" t="s">
         <v>1008</v>
       </c>
       <c r="B187" s="15" t="s">
@@ -16135,7 +16368,7 @@
       <c r="L187" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="M187" s="35" t="s">
+      <c r="M187" s="36" t="s">
         <v>1012</v>
       </c>
       <c r="N187" s="15" t="s">
@@ -16278,7 +16511,7 @@
       <c r="S189" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T189" s="26" t="n">
+      <c r="T189" s="27" t="n">
         <v>2014</v>
       </c>
       <c r="U189" s="15"/>
@@ -16340,7 +16573,7 @@
       <c r="S190" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T190" s="26" t="n">
+      <c r="T190" s="27" t="n">
         <v>2014</v>
       </c>
       <c r="U190" s="15"/>
@@ -16503,7 +16736,7 @@
       <c r="L193" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="M193" s="35" t="s">
+      <c r="M193" s="36" t="s">
         <v>1037</v>
       </c>
       <c r="N193" s="15" t="s">
@@ -16524,7 +16757,7 @@
       <c r="S193" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T193" s="48" t="n">
+      <c r="T193" s="49" t="n">
         <v>42339</v>
       </c>
       <c r="U193" s="15"/>
@@ -16565,7 +16798,7 @@
       <c r="L194" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="M194" s="35" t="s">
+      <c r="M194" s="36" t="s">
         <v>1037</v>
       </c>
       <c r="N194" s="15" t="s">
@@ -16586,7 +16819,7 @@
       <c r="S194" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T194" s="48" t="n">
+      <c r="T194" s="49" t="n">
         <v>42339</v>
       </c>
       <c r="U194" s="15"/>
@@ -16932,7 +17165,7 @@
       <c r="G200" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H200" s="35" t="s">
+      <c r="H200" s="36" t="s">
         <v>1064</v>
       </c>
       <c r="I200" s="15"/>
@@ -17048,7 +17281,7 @@
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F202" s="13" t="s">
         <v>1075</v>
@@ -17175,25 +17408,25 @@
         <v>416</v>
       </c>
       <c r="F204" s="15" t="s">
-        <v>1089</v>
+        <v>579</v>
       </c>
       <c r="G204" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H204" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I204" s="15"/>
       <c r="J204" s="15"/>
       <c r="K204" s="15"/>
       <c r="L204" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M204" s="15" t="s">
         <v>1091</v>
       </c>
-      <c r="M204" s="15" t="s">
+      <c r="N204" s="15" t="s">
         <v>1092</v>
-      </c>
-      <c r="N204" s="15" t="s">
-        <v>1093</v>
       </c>
       <c r="O204" s="15" t="s">
         <v>102</v>
@@ -17202,7 +17435,7 @@
         <v>332</v>
       </c>
       <c r="Q204" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R204" s="19" t="n">
         <v>42637</v>
@@ -17216,7 +17449,7 @@
       <c r="U204" s="15"/>
       <c r="V204" s="15"/>
       <c r="W204" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="X204" s="12"/>
       <c r="Y204" s="12"/>
@@ -17237,25 +17470,25 @@
         <v>416</v>
       </c>
       <c r="F205" s="15" t="s">
-        <v>1089</v>
+        <v>579</v>
       </c>
       <c r="G205" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H205" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="15"/>
       <c r="K205" s="15"/>
       <c r="L205" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M205" s="15" t="s">
         <v>1091</v>
       </c>
-      <c r="M205" s="15" t="s">
+      <c r="N205" s="15" t="s">
         <v>1092</v>
-      </c>
-      <c r="N205" s="15" t="s">
-        <v>1093</v>
       </c>
       <c r="O205" s="15" t="s">
         <v>102</v>
@@ -17264,7 +17497,7 @@
         <v>332</v>
       </c>
       <c r="Q205" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R205" s="19" t="n">
         <v>42637</v>
@@ -17278,7 +17511,7 @@
       <c r="U205" s="15"/>
       <c r="V205" s="15"/>
       <c r="W205" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="X205" s="12"/>
       <c r="Y205" s="12"/>
@@ -17286,7 +17519,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B206" s="15" t="s">
         <v>93</v>
@@ -17299,22 +17532,22 @@
         <v>416</v>
       </c>
       <c r="F206" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G206" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H206" s="15" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M206" s="15" t="s">
         <v>1098</v>
-      </c>
-      <c r="M206" s="15" t="s">
-        <v>1099</v>
       </c>
       <c r="N206" s="15" t="s">
         <v>141</v>
@@ -17326,7 +17559,7 @@
         <v>261</v>
       </c>
       <c r="Q206" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R206" s="19" t="n">
         <v>42639</v>
@@ -17340,7 +17573,7 @@
       <c r="U206" s="2"/>
       <c r="V206" s="2"/>
       <c r="W206" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="X206" s="12"/>
       <c r="Y206" s="12"/>
@@ -17361,25 +17594,25 @@
         <v>416</v>
       </c>
       <c r="F207" s="15" t="s">
-        <v>1089</v>
+        <v>579</v>
       </c>
       <c r="G207" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H207" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I207" s="15"/>
       <c r="J207" s="15"/>
       <c r="K207" s="15"/>
       <c r="L207" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M207" s="15" t="s">
         <v>1091</v>
       </c>
-      <c r="M207" s="15" t="s">
+      <c r="N207" s="15" t="s">
         <v>1092</v>
-      </c>
-      <c r="N207" s="15" t="s">
-        <v>1093</v>
       </c>
       <c r="O207" s="15" t="s">
         <v>102</v>
@@ -17388,7 +17621,7 @@
         <v>332</v>
       </c>
       <c r="Q207" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R207" s="19" t="n">
         <v>42637</v>
@@ -17402,7 +17635,7 @@
       <c r="U207" s="15"/>
       <c r="V207" s="15"/>
       <c r="W207" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="X207" s="12"/>
       <c r="Y207" s="12"/>
@@ -17423,25 +17656,25 @@
         <v>416</v>
       </c>
       <c r="F208" s="15" t="s">
-        <v>1089</v>
+        <v>579</v>
       </c>
       <c r="G208" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H208" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I208" s="15"/>
       <c r="J208" s="15"/>
       <c r="K208" s="15"/>
       <c r="L208" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M208" s="15" t="s">
         <v>1091</v>
       </c>
-      <c r="M208" s="15" t="s">
+      <c r="N208" s="15" t="s">
         <v>1092</v>
-      </c>
-      <c r="N208" s="15" t="s">
-        <v>1093</v>
       </c>
       <c r="O208" s="15" t="s">
         <v>102</v>
@@ -17450,7 +17683,7 @@
         <v>332</v>
       </c>
       <c r="Q208" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R208" s="19" t="n">
         <v>42637</v>
@@ -17464,7 +17697,7 @@
       <c r="U208" s="15"/>
       <c r="V208" s="15"/>
       <c r="W208" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
@@ -17472,7 +17705,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B209" s="15" t="s">
         <v>93</v>
@@ -17482,25 +17715,25 @@
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F209" s="15" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G209" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I209" s="15"/>
       <c r="J209" s="15"/>
       <c r="K209" s="15"/>
       <c r="L209" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M209" s="15" t="s">
         <v>1105</v>
-      </c>
-      <c r="M209" s="15" t="s">
-        <v>1106</v>
       </c>
       <c r="N209" s="15" t="s">
         <v>141</v>
@@ -17512,7 +17745,7 @@
         <v>332</v>
       </c>
       <c r="Q209" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="R209" s="19" t="n">
         <v>42640</v>
@@ -17521,12 +17754,12 @@
         <v>133</v>
       </c>
       <c r="T209" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U209" s="15"/>
       <c r="V209" s="15"/>
       <c r="W209" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="X209" s="12"/>
       <c r="Y209" s="12"/>
@@ -17534,7 +17767,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>93</v>
@@ -17547,22 +17780,22 @@
         <v>416</v>
       </c>
       <c r="F210" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G210" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H210" s="15" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M210" s="15" t="s">
         <v>1098</v>
-      </c>
-      <c r="M210" s="15" t="s">
-        <v>1099</v>
       </c>
       <c r="N210" s="15" t="s">
         <v>141</v>
@@ -17574,7 +17807,7 @@
         <v>261</v>
       </c>
       <c r="Q210" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R210" s="19" t="n">
         <v>42639</v>
@@ -17588,7 +17821,7 @@
       <c r="U210" s="2"/>
       <c r="V210" s="2"/>
       <c r="W210" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="X210" s="12"/>
       <c r="Y210" s="12"/>
@@ -17596,7 +17829,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>93</v>
@@ -17606,25 +17839,25 @@
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G211" s="15" t="s">
         <v>97</v>
       </c>
       <c r="H211" s="15" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I211" s="15"/>
       <c r="J211" s="15"/>
       <c r="K211" s="15"/>
       <c r="L211" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M211" s="15" t="s">
         <v>1111</v>
-      </c>
-      <c r="M211" s="15" t="s">
-        <v>1112</v>
       </c>
       <c r="N211" s="15" t="s">
         <v>141</v>
@@ -17636,7 +17869,7 @@
         <v>211</v>
       </c>
       <c r="Q211" s="15" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R211" s="19" t="n">
         <v>42640</v>
@@ -17644,13 +17877,13 @@
       <c r="S211" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T211" s="49" t="n">
+      <c r="T211" s="50" t="n">
         <v>39965</v>
       </c>
       <c r="U211" s="15"/>
       <c r="V211" s="15"/>
       <c r="W211" s="13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="X211" s="12"/>
       <c r="Y211" s="12"/>
@@ -17658,7 +17891,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>93</v>
@@ -17671,22 +17904,22 @@
         <v>416</v>
       </c>
       <c r="F212" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G212" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H212" s="15" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M212" s="15" t="s">
         <v>1098</v>
-      </c>
-      <c r="M212" s="15" t="s">
-        <v>1099</v>
       </c>
       <c r="N212" s="15" t="s">
         <v>141</v>
@@ -17698,7 +17931,7 @@
         <v>261</v>
       </c>
       <c r="Q212" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R212" s="19" t="n">
         <v>42639</v>
@@ -17712,7 +17945,7 @@
       <c r="U212" s="2"/>
       <c r="V212" s="2"/>
       <c r="W212" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="X212" s="12"/>
       <c r="Y212" s="12"/>
@@ -17720,7 +17953,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B213" s="15"/>
       <c r="C213" s="15" t="s">
@@ -17731,22 +17964,22 @@
         <v>95</v>
       </c>
       <c r="F213" s="15" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G213" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H213" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I213" s="15"/>
       <c r="J213" s="15"/>
       <c r="K213" s="15"/>
       <c r="L213" s="15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M213" s="15" t="s">
         <v>1118</v>
-      </c>
-      <c r="M213" s="15" t="s">
-        <v>1119</v>
       </c>
       <c r="N213" s="15" t="s">
         <v>141</v>
@@ -17758,27 +17991,27 @@
         <v>332</v>
       </c>
       <c r="Q213" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="R213" s="19" t="n">
         <v>42641</v>
       </c>
       <c r="S213" s="15" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="T213" s="15"/>
       <c r="U213" s="15"/>
       <c r="V213" s="15"/>
       <c r="W213" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="X213" s="15"/>
       <c r="Y213" s="12"/>
       <c r="Z213" s="12"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="35" t="s">
-        <v>1122</v>
+      <c r="A214" s="36" t="s">
+        <v>1121</v>
       </c>
       <c r="B214" s="15" t="s">
         <v>93</v>
@@ -17791,22 +18024,22 @@
         <v>95</v>
       </c>
       <c r="F214" s="15" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G214" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H214" s="35" t="s">
-        <v>1123</v>
+      <c r="H214" s="36" t="s">
+        <v>1122</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M214" s="36" t="s">
         <v>1124</v>
-      </c>
-      <c r="M214" s="35" t="s">
-        <v>1125</v>
       </c>
       <c r="N214" s="15" t="s">
         <v>141</v>
@@ -17818,7 +18051,7 @@
         <v>211</v>
       </c>
       <c r="Q214" s="15" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="R214" s="19" t="n">
         <v>42641</v>
@@ -17830,7 +18063,7 @@
       <c r="U214" s="2"/>
       <c r="V214" s="2"/>
       <c r="W214" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="X214" s="2"/>
       <c r="Y214" s="12"/>
@@ -17838,7 +18071,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="15" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B215" s="15" t="s">
         <v>93</v>
@@ -17851,22 +18084,22 @@
         <v>416</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G215" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H215" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I215" s="15"/>
       <c r="J215" s="15"/>
       <c r="K215" s="15"/>
       <c r="L215" s="15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="M215" s="15" t="s">
         <v>1130</v>
-      </c>
-      <c r="M215" s="15" t="s">
-        <v>1131</v>
       </c>
       <c r="N215" s="15" t="s">
         <v>141</v>
@@ -17878,7 +18111,7 @@
         <v>211</v>
       </c>
       <c r="Q215" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="R215" s="19" t="n">
         <v>42642</v>
@@ -17892,7 +18125,7 @@
       <c r="U215" s="15"/>
       <c r="V215" s="15"/>
       <c r="W215" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="X215" s="15"/>
       <c r="Y215" s="12"/>
@@ -17900,7 +18133,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="15" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B216" s="15" t="s">
         <v>93</v>
@@ -17913,25 +18146,25 @@
         <v>95</v>
       </c>
       <c r="F216" s="15" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G216" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H216" s="15" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I216" s="15"/>
       <c r="J216" s="15"/>
       <c r="K216" s="15"/>
       <c r="L216" s="15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M216" s="15" t="s">
         <v>1136</v>
       </c>
-      <c r="M216" s="15" t="s">
+      <c r="N216" s="15" t="s">
         <v>1137</v>
-      </c>
-      <c r="N216" s="15" t="s">
-        <v>1138</v>
       </c>
       <c r="O216" s="15" t="s">
         <v>102</v>
@@ -17940,7 +18173,7 @@
         <v>273</v>
       </c>
       <c r="Q216" s="13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R216" s="19" t="n">
         <v>42643</v>
@@ -17948,13 +18181,13 @@
       <c r="S216" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="T216" s="34" t="n">
+      <c r="T216" s="35" t="n">
         <v>42598</v>
       </c>
       <c r="U216" s="15"/>
       <c r="V216" s="15"/>
       <c r="W216" s="13" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="X216" s="15"/>
       <c r="Y216" s="12"/>
@@ -17962,7 +18195,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B217" s="15" t="s">
         <v>93</v>
@@ -17975,25 +18208,25 @@
         <v>95</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G217" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I217" s="15"/>
       <c r="J217" s="15"/>
       <c r="K217" s="15"/>
       <c r="L217" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="M217" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="N217" s="15" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O217" s="15" t="s">
         <v>102</v>
@@ -18002,7 +18235,7 @@
         <v>273</v>
       </c>
       <c r="Q217" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R217" s="19" t="n">
         <v>42643</v>
@@ -18010,13 +18243,13 @@
       <c r="S217" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="T217" s="34" t="n">
+      <c r="T217" s="35" t="n">
         <v>42598</v>
       </c>
       <c r="U217" s="15"/>
       <c r="V217" s="15"/>
       <c r="W217" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="X217" s="15"/>
       <c r="Y217" s="12"/>
@@ -18024,7 +18257,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>93</v>
@@ -18037,25 +18270,25 @@
         <v>95</v>
       </c>
       <c r="F218" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G218" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H218" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I218" s="15"/>
       <c r="J218" s="15"/>
       <c r="K218" s="15"/>
       <c r="L218" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="M218" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="N218" s="15" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O218" s="15" t="s">
         <v>102</v>
@@ -18064,7 +18297,7 @@
         <v>273</v>
       </c>
       <c r="Q218" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R218" s="19" t="n">
         <v>42643</v>
@@ -18072,17 +18305,1399 @@
       <c r="S218" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="T218" s="34" t="n">
+      <c r="T218" s="35" t="n">
         <v>42598</v>
       </c>
       <c r="U218" s="15"/>
       <c r="V218" s="15"/>
       <c r="W218" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="X218" s="15"/>
       <c r="Y218" s="12"/>
       <c r="Z218" s="12"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F219" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G219" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H219" s="15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I219" s="15"/>
+      <c r="J219" s="15"/>
+      <c r="K219" s="15"/>
+      <c r="L219" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M219" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N219" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O219" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P219" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q219" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R219" s="51" t="n">
+        <v>42644</v>
+      </c>
+      <c r="S219" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T219" s="15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U219" s="15"/>
+      <c r="V219" s="15"/>
+      <c r="W219" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="X219" s="15"/>
+      <c r="Y219" s="12"/>
+      <c r="Z219" s="12"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F220" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G220" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H220" s="15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I220" s="15"/>
+      <c r="J220" s="15"/>
+      <c r="K220" s="15"/>
+      <c r="L220" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M220" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N220" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O220" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P220" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q220" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R220" s="51" t="n">
+        <v>42644</v>
+      </c>
+      <c r="S220" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T220" s="15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U220" s="15"/>
+      <c r="V220" s="15"/>
+      <c r="W220" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="X220" s="15"/>
+      <c r="Y220" s="12"/>
+      <c r="Z220" s="12"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F221" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G221" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H221" s="15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I221" s="15"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="15"/>
+      <c r="L221" s="15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M221" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N221" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O221" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P221" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q221" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R221" s="51" t="n">
+        <v>42644</v>
+      </c>
+      <c r="S221" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T221" s="15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U221" s="15"/>
+      <c r="V221" s="15"/>
+      <c r="W221" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="X221" s="15"/>
+      <c r="Y221" s="12"/>
+      <c r="Z221" s="12"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F222" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G222" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H222" s="15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I222" s="15"/>
+      <c r="J222" s="15"/>
+      <c r="K222" s="15"/>
+      <c r="L222" s="15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M222" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N222" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O222" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="P222" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q222" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R222" s="51" t="n">
+        <v>42644</v>
+      </c>
+      <c r="S222" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T222" s="15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="U222" s="15"/>
+      <c r="V222" s="2"/>
+      <c r="W222" s="13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="X222" s="15"/>
+      <c r="Y222" s="12"/>
+      <c r="Z222" s="12"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F223" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G223" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H223" s="15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I223" s="15"/>
+      <c r="J223" s="15"/>
+      <c r="K223" s="15"/>
+      <c r="L223" s="15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N223" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O223" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="P223" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q223" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R223" s="51" t="n">
+        <v>42644</v>
+      </c>
+      <c r="S223" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T223" s="15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="U223" s="15"/>
+      <c r="V223" s="2"/>
+      <c r="W223" s="13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="X223" s="15"/>
+      <c r="Y223" s="12"/>
+      <c r="Z223" s="12"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F224" s="15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G224" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H224" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M224" s="15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N224" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O224" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P224" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q224" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="R224" s="51" t="n">
+        <v>42646</v>
+      </c>
+      <c r="S224" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T224" s="41" t="n">
+        <v>42556</v>
+      </c>
+      <c r="U224" s="2"/>
+      <c r="V224" s="2"/>
+      <c r="W224" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="X224" s="2"/>
+      <c r="Y224" s="12"/>
+      <c r="Z224" s="12"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F225" s="15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G225" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H225" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M225" s="15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N225" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O225" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P225" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q225" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="R225" s="51" t="n">
+        <v>42646</v>
+      </c>
+      <c r="S225" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T225" s="41" t="n">
+        <v>42556</v>
+      </c>
+      <c r="U225" s="2"/>
+      <c r="V225" s="2"/>
+      <c r="W225" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="X225" s="2"/>
+      <c r="Y225" s="12"/>
+      <c r="Z225" s="12"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F226" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G226" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H226" s="15" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I226" s="15"/>
+      <c r="J226" s="15"/>
+      <c r="K226" s="15"/>
+      <c r="L226" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M226" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N226" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O226" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P226" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q226" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="R226" s="51" t="n">
+        <v>42646</v>
+      </c>
+      <c r="S226" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="T226" s="35" t="n">
+        <v>42659</v>
+      </c>
+      <c r="U226" s="2"/>
+      <c r="V226" s="15"/>
+      <c r="W226" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="X226" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y226" s="12"/>
+      <c r="Z226" s="12"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F227" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G227" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H227" s="15" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I227" s="15"/>
+      <c r="J227" s="15"/>
+      <c r="K227" s="15"/>
+      <c r="L227" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M227" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N227" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O227" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P227" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q227" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="R227" s="51" t="n">
+        <v>42646</v>
+      </c>
+      <c r="S227" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="T227" s="35" t="n">
+        <v>42659</v>
+      </c>
+      <c r="U227" s="2"/>
+      <c r="V227" s="15"/>
+      <c r="W227" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="X227" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y227" s="12"/>
+      <c r="Z227" s="12"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F228" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G228" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H228" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I228" s="15"/>
+      <c r="J228" s="15"/>
+      <c r="K228" s="15"/>
+      <c r="L228" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M228" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N228" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O228" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P228" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q228" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="R228" s="51" t="n">
+        <v>42646</v>
+      </c>
+      <c r="S228" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T228" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="U228" s="2"/>
+      <c r="V228" s="15"/>
+      <c r="W228" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="X228" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y228" s="12"/>
+      <c r="Z228" s="12"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="15" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F229" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G229" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H229" s="36" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I229" s="15"/>
+      <c r="J229" s="15"/>
+      <c r="K229" s="15"/>
+      <c r="L229" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M229" s="15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="N229" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O229" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="P229" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q229" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="R229" s="51" t="n">
+        <v>42647</v>
+      </c>
+      <c r="S229" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T229" s="35" t="n">
+        <v>42474</v>
+      </c>
+      <c r="U229" s="2"/>
+      <c r="V229" s="15"/>
+      <c r="W229" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="X229" s="15"/>
+      <c r="Y229" s="12"/>
+      <c r="Z229" s="12"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D230" s="15"/>
+      <c r="E230" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F230" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G230" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H230" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I230" s="15"/>
+      <c r="J230" s="15"/>
+      <c r="K230" s="15"/>
+      <c r="L230" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M230" s="36" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N230" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O230" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="P230" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q230" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="R230" s="51" t="n">
+        <v>42647</v>
+      </c>
+      <c r="S230" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="T230" s="35" t="n">
+        <v>42687</v>
+      </c>
+      <c r="U230" s="2"/>
+      <c r="V230" s="15"/>
+      <c r="W230" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="X230" s="15"/>
+      <c r="Y230" s="12"/>
+      <c r="Z230" s="12"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G231" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H231" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I231" s="15"/>
+      <c r="J231" s="15"/>
+      <c r="K231" s="15"/>
+      <c r="L231" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M231" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N231" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O231" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P231" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q231" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R231" s="51" t="n">
+        <v>42648</v>
+      </c>
+      <c r="S231" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T231" s="15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="U231" s="15"/>
+      <c r="V231" s="15"/>
+      <c r="W231" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X231" s="15"/>
+      <c r="Y231" s="12"/>
+      <c r="Z231" s="12"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F232" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G232" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H232" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I232" s="15"/>
+      <c r="J232" s="15"/>
+      <c r="K232" s="15"/>
+      <c r="L232" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M232" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N232" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O232" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P232" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q232" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R232" s="51" t="n">
+        <v>42648</v>
+      </c>
+      <c r="S232" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T232" s="15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="U232" s="15"/>
+      <c r="V232" s="15"/>
+      <c r="W232" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X232" s="15"/>
+      <c r="Y232" s="12"/>
+      <c r="Z232" s="12"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="15" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F233" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G233" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H233" s="15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I233" s="15"/>
+      <c r="J233" s="15"/>
+      <c r="K233" s="15"/>
+      <c r="L233" s="15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M233" s="15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N233" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O233" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P233" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q233" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R233" s="51" t="n">
+        <v>42649</v>
+      </c>
+      <c r="S233" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="T233" s="15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U233" s="2"/>
+      <c r="V233" s="15"/>
+      <c r="W233" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="X233" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y233" s="12"/>
+      <c r="Z233" s="12"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="15" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F234" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G234" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H234" s="15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I234" s="15"/>
+      <c r="J234" s="15"/>
+      <c r="K234" s="15"/>
+      <c r="L234" s="15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M234" s="15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N234" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O234" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P234" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q234" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R234" s="51" t="n">
+        <v>42649</v>
+      </c>
+      <c r="S234" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="T234" s="15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U234" s="2"/>
+      <c r="V234" s="15"/>
+      <c r="W234" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="X234" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y234" s="12"/>
+      <c r="Z234" s="12"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="15" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F235" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G235" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H235" s="15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I235" s="15"/>
+      <c r="J235" s="15"/>
+      <c r="K235" s="15"/>
+      <c r="L235" s="15" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M235" s="15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N235" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O235" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P235" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q235" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R235" s="51" t="n">
+        <v>42650</v>
+      </c>
+      <c r="S235" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="T235" s="15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U235" s="2"/>
+      <c r="V235" s="15"/>
+      <c r="W235" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="X235" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y235" s="12"/>
+      <c r="Z235" s="12"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="15" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F236" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G236" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H236" s="15" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I236" s="15"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="15"/>
+      <c r="L236" s="15" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M236" s="15" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N236" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O236" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P236" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q236" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R236" s="51" t="n">
+        <v>42650</v>
+      </c>
+      <c r="S236" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="T236" s="15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U236" s="2"/>
+      <c r="V236" s="15"/>
+      <c r="W236" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="X236" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y236" s="12"/>
+      <c r="Z236" s="12"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C237" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F237" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G237" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H237" s="15" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I237" s="2"/>
+      <c r="J237" s="15"/>
+      <c r="K237" s="15"/>
+      <c r="L237" s="15" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M237" s="15" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N237" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O237" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P237" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q237" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R237" s="51" t="n">
+        <v>42650</v>
+      </c>
+      <c r="S237" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="T237" s="15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U237" s="2"/>
+      <c r="V237" s="15"/>
+      <c r="W237" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="X237" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y237" s="12"/>
+      <c r="Z237" s="12"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C238" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F238" s="15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G238" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H238" s="15" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I238" s="15"/>
+      <c r="J238" s="15"/>
+      <c r="K238" s="15"/>
+      <c r="L238" s="15" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M238" s="15" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N238" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O238" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P238" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q238" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="R238" s="51" t="n">
+        <v>42651</v>
+      </c>
+      <c r="S238" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T238" s="35" t="n">
+        <v>42567</v>
+      </c>
+      <c r="U238" s="15"/>
+      <c r="V238" s="15"/>
+      <c r="W238" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="X238" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y238" s="12"/>
+      <c r="Z238" s="12"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C239" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F239" s="15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G239" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H239" s="15" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I239" s="15"/>
+      <c r="J239" s="15"/>
+      <c r="K239" s="15"/>
+      <c r="L239" s="15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M239" s="15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N239" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O239" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P239" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q239" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R239" s="51" t="n">
+        <v>42651</v>
+      </c>
+      <c r="S239" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="T239" s="35" t="n">
+        <v>42445</v>
+      </c>
+      <c r="U239" s="15"/>
+      <c r="V239" s="15"/>
+      <c r="W239" s="20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X239" s="15"/>
+      <c r="Y239" s="12"/>
+      <c r="Z239" s="12"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="15" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F240" s="15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G240" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H240" s="15" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I240" s="15"/>
+      <c r="J240" s="15"/>
+      <c r="K240" s="15"/>
+      <c r="L240" s="15" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M240" s="15" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N240" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O240" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P240" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q240" s="20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="R240" s="51" t="n">
+        <v>42652</v>
+      </c>
+      <c r="S240" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T240" s="35" t="n">
+        <v>42719</v>
+      </c>
+      <c r="U240" s="2"/>
+      <c r="V240" s="15"/>
+      <c r="W240" s="20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="X240" s="15"/>
+      <c r="Y240" s="12"/>
+      <c r="Z240" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18234,234 +19849,273 @@
     <hyperlink ref="W87" r:id="rId146" display="http://www.idespo.una.ac.cr/index.php/inicio/areas-de-trabajo/estudios-de-poblacion"/>
     <hyperlink ref="W88" r:id="rId147" display="http://www.idespo.una.ac.cr/index.php/inicio/areas-de-trabajo/estudios-de-poblacion"/>
     <hyperlink ref="W89" r:id="rId148" display="http://www.idespo.una.ac.cr/index.php/inicio/areas-de-trabajo/estudios-de-poblacion"/>
-    <hyperlink ref="Q90" r:id="rId149" display="http://www.asvocr.org/asvo/actividad.php"/>
-    <hyperlink ref="W90" r:id="rId150" display="http://www.asvocr.org/asvo/info.php"/>
-    <hyperlink ref="Q91" r:id="rId151" display="http://www.idespo.una.ac.cr/index.php/biblioteca/670/showCategory/60/mil-y-una-encuestas"/>
-    <hyperlink ref="W91" r:id="rId152" display="http://www.idespo.una.ac.cr/index.php/biblioteca/670/all_categories"/>
-    <hyperlink ref="Q92" r:id="rId153" display="https://simacr.go.cr/index.php/analisis-pecuario"/>
-    <hyperlink ref="W92" r:id="rId154" display="https://simacr.go.cr/"/>
-    <hyperlink ref="Q93" r:id="rId155" display="https://simacr.go.cr/index.php/preciosgranosbasicos"/>
-    <hyperlink ref="W93" r:id="rId156" display="https://simacr.go.cr/"/>
-    <hyperlink ref="Q94" r:id="rId157" display="https://cgrweb.cgr.go.cr/apex/f?p=164:10:0::NO:::"/>
-    <hyperlink ref="W94" r:id="rId158" display="http://www.cgr.go.cr/consultas/sistemas-consulta-ciudadana"/>
-    <hyperlink ref="Q95" r:id="rId159" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/transporte.html"/>
-    <hyperlink ref="W95" r:id="rId160" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/"/>
-    <hyperlink ref="Q96" r:id="rId161" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/educacion.html"/>
-    <hyperlink ref="W96" r:id="rId162" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/"/>
-    <hyperlink ref="Q97" r:id="rId163" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/seguridad.html"/>
-    <hyperlink ref="W97" r:id="rId164" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/"/>
-    <hyperlink ref="W98" r:id="rId165" display="http://www.fonabe.go.cr/Informacion"/>
-    <hyperlink ref="Q99" r:id="rId166" display="http://www.fonabe.go.cr/Informacion/Estadisticas/Estadisticas2009/Paginas/Principal.aspx"/>
-    <hyperlink ref="W99" r:id="rId167" display="http://www.fonabe.go.cr/Informacion/Estadisticas"/>
-    <hyperlink ref="Q100" r:id="rId168" display="http://www.imas.go.cr/biblioteca/"/>
-    <hyperlink ref="W100" r:id="rId169" display="http://www.imas.go.cr/biblioteca/"/>
-    <hyperlink ref="Q101" r:id="rId170" display="http://www.imas.go.cr/biblioteca/"/>
-    <hyperlink ref="W101" r:id="rId171" display="http://www.imas.go.cr/biblioteca/"/>
-    <hyperlink ref="W102" r:id="rId172" display="http://www.unicef.org/costarica/"/>
-    <hyperlink ref="W103" r:id="rId173" display="http://www.unicef.org/costarica/"/>
-    <hyperlink ref="W104" r:id="rId174" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="Q105" r:id="rId175" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="W105" r:id="rId176" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="Q106" r:id="rId177" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="W106" r:id="rId178" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="Q107" r:id="rId179" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="W107" r:id="rId180" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="Q108" r:id="rId181" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="W108" r:id="rId182" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
-    <hyperlink ref="Q109" r:id="rId183" display="https://www.corbana.co.cr/categories/estadisticas-bananeras"/>
-    <hyperlink ref="W109" r:id="rId184" display="https://www.corbana.co.cr/categories/search?utf8=%E2%9C%93&amp;q=estadistica&amp;commit="/>
-    <hyperlink ref="Q110" r:id="rId185" display="http://www.corfoga.org/images/public/documentos/pdf/otros_cuadros.pdf"/>
-    <hyperlink ref="W110" r:id="rId186" display="http://www.corfoga.org/censo.php"/>
-    <hyperlink ref="Q111" r:id="rId187" display="http://www.bomberos.go.cr/estadisticas/"/>
-    <hyperlink ref="W111" r:id="rId188" display="http://www.bomberos.go.cr/"/>
-    <hyperlink ref="Q112" r:id="rId189" display="http://www.dhr.go.cr/la_defensoria/proveeduria.html"/>
-    <hyperlink ref="W112" r:id="rId190" display="http://www.dhr.go.cr/la_defensoria/proveeduria.html"/>
-    <hyperlink ref="Q113" r:id="rId191" display="http://www.dhr.go.cr/defensoria_transparente/bienes_inmuebles/bienes_inmuebles.pdf"/>
-    <hyperlink ref="W113" r:id="rId192" display="http://www.dhr.go.cr/defensoria_transparente/dhr_transparente.html"/>
-    <hyperlink ref="Q114" r:id="rId193" location="HERMES_TABS_9_1" display="http://www.migracion.go.cr/institucion/estadisticas_documentos.html#HERMES_TABS_9_1"/>
-    <hyperlink ref="W114" r:id="rId194" display="http://www.migracion.go.cr/institucion/estadisticas_documentos.html"/>
-    <hyperlink ref="W115" r:id="rId195" display="http://www.archivonacional.go.cr/index.php?option=com_content&amp;view=category&amp;id=54&amp;Itemid=85"/>
-    <hyperlink ref="W116" r:id="rId196" display="http://www.cen-cinai.go.cr/"/>
-    <hyperlink ref="W117" r:id="rId197" display="http://www.cen-cinai.go.cr/"/>
-    <hyperlink ref="W118" r:id="rId198" display="http://www.cen-cinai.go.cr/"/>
-    <hyperlink ref="W119" r:id="rId199" display="http://www.dinadeco.go.cr/index.php?module=pagesetter&amp;tid=19"/>
-    <hyperlink ref="Q120" r:id="rId200" display="http://www.eca.or.cr/"/>
-    <hyperlink ref="W120" r:id="rId201" display="http://www.eca.or.cr/"/>
-    <hyperlink ref="Q121" r:id="rId202" display="http://www.fonafifo.go.cr/psa/estadisticas_psa.html"/>
-    <hyperlink ref="W121" r:id="rId203" display="http://www.fonafifo.go.cr/psa/index.html"/>
-    <hyperlink ref="Q122" r:id="rId204" display="http://sipsa.fonafifo.com/ppsa/Reportes/reportecita/reportecitas.html"/>
-    <hyperlink ref="W122" r:id="rId205" display="http://www.fonafifo.go.cr/"/>
-    <hyperlink ref="Q123" r:id="rId206" display="http://sipsa.fonafifo.com/webconsultaor/consultascalificacion.aspx"/>
-    <hyperlink ref="W123" r:id="rId207" display="http://www.fonafifo.go.cr/"/>
-    <hyperlink ref="W124" r:id="rId208" display="https://www.grupoice.com/wps/portal/ICE/AcercadelGrupoICE/Gobierno%20corporativo/Informes/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizQMtHA093A183M09nA0cfUPMHA3NXY0MA0z0w_Ep8PUy1Y8iRr8BDuBoQJx-PAqi8Bsfrh-FaoWFb7CxgaOhpY97iIWJobuhIQEFjkboCrCEASFXFOSGhkYYZHqmOyoqAgAH65mm/dz/d5/L2dBISEvZ0FBIS9nQSEh/"/>
-    <hyperlink ref="W125" r:id="rId209" display="https://www.grupoice.com/wps/portal/ICE/AcercadelGrupoICE/Gobierno%20corporativo/Informes/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizQMtHA093A183M09nA0cfUPMHA3NXY0MA0z0w_Ep8PUy1Y8iRr8BDuBoQJx-PAqi8Bsfrh-FaoWFb7CxgaOhpY97iIWJobuhIQEFjkboCrCEASFXFOSGhkYYZHqmOyoqAgAH65mm/dz/d5/L2dBISEvZ0FBIS9nQSEh/"/>
-    <hyperlink ref="Q126" r:id="rId210" display="https://www.incopesca.go.cr/publicaciones/estadiscticas/historico/2014.html"/>
-    <hyperlink ref="W126" r:id="rId211" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
-    <hyperlink ref="Q127" r:id="rId212" display="https://www.incopesca.go.cr/publicaciones/estadiscticas/historico/2014.html"/>
-    <hyperlink ref="W127" r:id="rId213" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
-    <hyperlink ref="Q128" r:id="rId214" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
-    <hyperlink ref="W128" r:id="rId215" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
-    <hyperlink ref="Q129" r:id="rId216" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
-    <hyperlink ref="W129" r:id="rId217" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
-    <hyperlink ref="Q130" r:id="rId218" display="https://www.incopesca.go.cr/publicaciones/estadiscticas/centros_acopio/Centro%20de%20acopio%201.jpg"/>
-    <hyperlink ref="W130" r:id="rId219" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
-    <hyperlink ref="Q131" r:id="rId220" display="http://www.incop.go.cr/formato_tradicional.php?p=129"/>
-    <hyperlink ref="W131" r:id="rId221" display="http://www.incop.go.cr/formato_tradicional.php?p=129"/>
-    <hyperlink ref="Q132" r:id="rId222" display="http://www.incop.go.cr/Estadisticas.Web/Default.aspx"/>
-    <hyperlink ref="W132" r:id="rId223" display="http://www.incop.go.cr/Estadisticas.Web/Default.aspx"/>
-    <hyperlink ref="Q133" r:id="rId224" display="http://www.ict.go.cr/es/documentos-institucionales/estad%C3%ADsticas/encuestas/cruceros-puertos-mar%C3%ADtimos/temporadas/545-2014-2015/file.html"/>
-    <hyperlink ref="W133" r:id="rId225" display="http://www.ict.go.cr/es/estadisticas/encuestas.html"/>
-    <hyperlink ref="Q134" r:id="rId226" display="http://www.ict.go.cr/es/documentos-institucionales/estad%C3%ADsticas/encuestas/aeropuertos/residentes-2/2010-8/535-i-semestre-2010-juan-santamaria/file.html"/>
-    <hyperlink ref="W134" r:id="rId227" display="http://www.ict.go.cr/es/estadisticas/encuestas.html"/>
-    <hyperlink ref="W135" r:id="rId228" display="http://www.ict.go.cr/es/estadisticas/informes-estadisticos.html"/>
-    <hyperlink ref="Q136" r:id="rId229" display="http://www.inciensa.sa.cr/estadisticas/seriesgraficas.aspx"/>
-    <hyperlink ref="W136" r:id="rId230" display="http://www.inciensa.sa.cr/vigilancia_epidemiologica/estadisticas.aspx"/>
-    <hyperlink ref="Q137" r:id="rId231" display="http://www.icd.go.cr/portalicd/index.php/uid-observatorio/est-uied/control-oferta"/>
-    <hyperlink ref="W137" r:id="rId232" display="http://www.icd.go.cr/portalicd/index.php/uid-observatorio/est-uied/control-oferta"/>
-    <hyperlink ref="Q138" r:id="rId233" display="http://www.icd.go.cr/portalicd/index.php/uid-observatorio/est-uied/reduccion-demanda-uid"/>
-    <hyperlink ref="W138" r:id="rId234" display="http://www.icd.go.cr/portalicd/index.php/uid-observatorio/est-uied/reduccion-demanda-uid"/>
-    <hyperlink ref="Q139" r:id="rId235" display="http://www.icd.go.cr/portalicd/images/docs/uid/investigaciones/Trastornos%20de%20la%20Conducta%20Alimentaria_ENN_2008.pdf"/>
-    <hyperlink ref="W139" r:id="rId236" display="http://www.icd.go.cr/portalicd/index.php/public-uied/investigaciones-uid"/>
-    <hyperlink ref="Q140" r:id="rId237" display="http://www.icd.go.cr/portalicd/images/docs/uid/investigaciones/Encuesta_Trfico_colegios2015_Prevencin.pdf"/>
-    <hyperlink ref="W140" r:id="rId238" display="http://www.icd.go.cr/portalicd/index.php/public-uied/investigaciones-uid"/>
-    <hyperlink ref="Q141" r:id="rId239" display="https://www.inder.go.cr/acerca_del_inder/transparencia/FincasComprasAdminChinchilla.pdf"/>
-    <hyperlink ref="W141" r:id="rId240" display="https://www.inder.go.cr/acerca_del_inder/transparencia/"/>
-    <hyperlink ref="W142" r:id="rId241" display="http://www.infocoop.go.cr/cooperativismo/estadisticas.html"/>
-    <hyperlink ref="W143" r:id="rId242" location="info" display="http://www.mjp.go.cr/Informacion/Estadistica.aspx#info"/>
-    <hyperlink ref="W144" r:id="rId243" location="elec" display="http://www.mjp.go.cr/Estadistica/InformeElectoral.aspx#elec"/>
-    <hyperlink ref="Q145" r:id="rId244" display="http://www.rnp.go.cr/Entidades%20Autorizadas.pdf"/>
-    <hyperlink ref="W145" r:id="rId245" location="HERMES_TABS_2_1" display="http://www.rnp.go.cr/Info%201.htm#HERMES_TABS_2_1"/>
-    <hyperlink ref="Q146" r:id="rId246" display="http://www.japdeva.go.cr/administracion_portuaria/estadisticas/2014/ANUARIO%20ESTADISTICO%202015%202%20SI.PDF"/>
-    <hyperlink ref="W146" r:id="rId247" display="http://www.japdeva.go.cr/administracion_portuaria/estadistica_portuaria.html"/>
-    <hyperlink ref="Q147" r:id="rId248" display="http://www.inec.go.cr/empleo"/>
-    <hyperlink ref="W147" r:id="rId249" display="http://www.inec.go.cr/empleo"/>
-    <hyperlink ref="Q148" r:id="rId250" display="http://www.inec.go.cr/empleo/temas-especiales-de-empleo"/>
-    <hyperlink ref="W148" r:id="rId251" display="http://www.inec.go.cr/empleo/temas-especiales-de-empleo"/>
-    <hyperlink ref="Q149" r:id="rId252" display="http://www.inec.go.cr/poblacion/estimaciones-y-proyecciones-de-poblacion"/>
-    <hyperlink ref="W149" r:id="rId253" display="http://www.inec.go.cr/poblacion/estimaciones-y-proyecciones-de-poblacion"/>
-    <hyperlink ref="Q150" r:id="rId254" display="http://www.inec.go.cr/anuario-estadistico"/>
-    <hyperlink ref="W150" r:id="rId255" display="http://www.inec.go.cr/anuario-estadistico"/>
-    <hyperlink ref="Q151" r:id="rId256" display="http://www.inec.go.cr/censos/censo-agropecuario-2014"/>
-    <hyperlink ref="W151" r:id="rId257" display="http://www.inec.go.cr/censos/censo-agropecuario-2014"/>
-    <hyperlink ref="Q152" r:id="rId258" display="http://www.inec.go.cr/estadisticas-vitales"/>
-    <hyperlink ref="W152" r:id="rId259" display="http://www.inec.go.cr/sites/default/files/documetos-biblioteca-virtual/mepoblacdefedadfertil2010-2012.pdf"/>
-    <hyperlink ref="Q153" r:id="rId260" display="http://www.inec.go.cr/sites/default/files/documetos-biblioteca-virtual/mepoblacdefedadfertil2010-2012.pdf"/>
-    <hyperlink ref="W153" r:id="rId261" display="http://www.inec.go.cr/sites/default/files/documetos-biblioteca-virtual/mepoblacdefedadfertil2010-2012.pdf"/>
-    <hyperlink ref="Q154" r:id="rId262" display="http://www.inec.go.cr/poblacion/estimaciones-y-proyecciones-de-poblacion"/>
-    <hyperlink ref="W154" r:id="rId263" display="http://www.inec.go.cr/metodologias"/>
-    <hyperlink ref="Q155" r:id="rId264" display="http://www.inec.go.cr/poblacion/estimaciones-y-proyecciones-de-poblacion"/>
-    <hyperlink ref="W155" r:id="rId265" display="http://www.inec.go.cr/metodologias"/>
-    <hyperlink ref="W156" r:id="rId266" display="http://www.inec.go.cr/sites/default/files/documetos-biblioteca-virtual/recatalogoproductos2016.pdf"/>
-    <hyperlink ref="W157" r:id="rId267" display="http://www.inec.go.cr/publicaciones"/>
-    <hyperlink ref="Q158" r:id="rId268" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas/estadistica-de-cancer-registro-nacional-tumores/mortalidad"/>
-    <hyperlink ref="W158" r:id="rId269" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas"/>
-    <hyperlink ref="Q159" r:id="rId270" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas/estadistica-mortalidad-infantil-y-materna"/>
-    <hyperlink ref="W159" r:id="rId271" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas"/>
-    <hyperlink ref="Q160" r:id="rId272" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas/estadistica-mortalidad-infantil-y-materna"/>
-    <hyperlink ref="W160" r:id="rId273" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas"/>
-    <hyperlink ref="Q161" r:id="rId274" display="http://www.mag.go.cr/biblioteca_virtual_animal/Encuesta-Ganadera-2004.pdf"/>
-    <hyperlink ref="W161" r:id="rId275" display="http://www.mag.go.cr/buscador/Default.aspx"/>
-    <hyperlink ref="W162" r:id="rId276" display="http://www.mag.go.cr/buscador/Default.aspx"/>
-    <hyperlink ref="Q163" r:id="rId277" display="http://www.meic.go.cr/web/761/datos-abiertos/pyme/registro-de-empresas"/>
-    <hyperlink ref="W163" r:id="rId278" display="http://www.meic.go.cr/web/755/datos-abiertos/pyme"/>
-    <hyperlink ref="Q164" r:id="rId279" display="https://view.officeapps.live.com/op/view.aspx?src=http://www.hacienda.go.cr/docs/57c5c490e19a1_Importacion%20perfeccionamiento%20activo%20julio%202016.xlsx"/>
-    <hyperlink ref="W164" r:id="rId280" display="http://www.hacienda.go.cr/contenido/370-estadisticas-de-importacion-y-exportacion"/>
-    <hyperlink ref="Q165" r:id="rId281" display="https://view.officeapps.live.com/op/view.aspx?src=http://www.hacienda.go.cr/docs/57c5c4f1dff2e_Exportacion%20nacional%20julio%202016.xlsx"/>
-    <hyperlink ref="W165" r:id="rId282" display="http://www.hacienda.go.cr/contenido/370-estadisticas-de-importacion-y-exportacion"/>
-    <hyperlink ref="W166" r:id="rId283" display="http://www.mjp.go.cr/documentacion/Download.aspx?1044"/>
-    <hyperlink ref="W167" r:id="rId284" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos"/>
-    <hyperlink ref="Q168" r:id="rId285" display="http://www.seguridadpublica.go.cr/direccion/armamento/estadisticas.aspx"/>
-    <hyperlink ref="W168" r:id="rId286" display="http://www.seguridadpublica.go.cr/direccion/armamento/estadisticas.aspx"/>
-    <hyperlink ref="Q169" r:id="rId287" display="http://www.seguridadpublica.go.cr/direccion/seguridad_privada/estadisticas.aspx"/>
-    <hyperlink ref="W169" r:id="rId288" display="http://www.seguridadpublica.go.cr/direccion/seguridad_privada/estadisticas.aspx"/>
-    <hyperlink ref="Q170" r:id="rId289" display="https://www.google.com.co/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;cad=rja&amp;uact=8&amp;ved=0ahUKEwiV9_H1-YDPAhVBlB4KHSsNAlwQFggcMAA&amp;url=http%3A%2F%2Fwww.seguridadpublica.go.cr%2Fdireccion%2Farmamento%2FLista_de_mercancias_que_requieren_aprobacion_de_la_DGA_para_su_desalmacenaje.pdf&amp;usg=AFQjCNH_2obmY0AfaI3GAEiTg8y3V8SxqQ"/>
-    <hyperlink ref="W170" r:id="rId290" display="https://www.google.com.co/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;cad=rja&amp;uact=8&amp;ved=0ahUKEwiV9_H1-YDPAhVBlB4KHSsNAlwQFggcMAA&amp;url=http%3A%2F%2Fwww.seguridadpublica.go.cr%2Fdireccion%2Farmamento%2FLista_de_mercancias_que_requieren_aprobacion_de_la_DGA_para_su_desalmacenaje.pdf&amp;usg=AFQjCNH_2obmY0AfaI3GAEiTg8y3V8SxqQ"/>
-    <hyperlink ref="Q171" r:id="rId291" display="http://indicadores.micit.go.cr/dashboards/7953/inversion-en-act-e-id-2011/"/>
-    <hyperlink ref="W171" r:id="rId292" display="http://indicadores.micit.go.cr/"/>
-    <hyperlink ref="Q172" r:id="rId293" display="http://indicadores.micit.go.cr/dashboards/7971/recursos-humanos-en-id-2011/"/>
-    <hyperlink ref="W172" r:id="rId294" display="http://indicadores.micit.go.cr/"/>
-    <hyperlink ref="Q173" r:id="rId295" display="http://indicadores.micit.go.cr/dashboards/7957/tics-en-empresas-2011/"/>
-    <hyperlink ref="W173" r:id="rId296" display="http://indicadores.micit.go.cr/"/>
-    <hyperlink ref="Q174" r:id="rId297" display="http://indicadores.micit.go.cr/dashboards/7959/actividades-innovacion-en-empresas-2011/"/>
-    <hyperlink ref="W174" r:id="rId298" display="http://indicadores.micit.go.cr/"/>
-    <hyperlink ref="Q175" r:id="rId299" display="http://indicadores.micit.go.cr/dashboards/7990/actividades-id-en-empresas-2011/"/>
-    <hyperlink ref="W175" r:id="rId300" display="http://indicadores.micit.go.cr/"/>
-    <hyperlink ref="Q176" r:id="rId301" display="http://www.comex.go.cr/estadisticas/aranceles.aspx"/>
-    <hyperlink ref="W176" r:id="rId302" display="http://www.comex.go.cr/estadisticas/index.aspx"/>
-    <hyperlink ref="Q177" r:id="rId303" display="http://www.ofinase.go.cr/index.php?option=com_content&amp;view=article&amp;id=159%3Aestadisticas-certificacion-especies-foresales&amp;catid=42%3Acertificaciondesemillas&amp;Itemid=161&amp;lang=es"/>
-    <hyperlink ref="W177" r:id="rId304" display="http://www.ofinase.go.cr/index.php?option=com_content&amp;view=article&amp;id=159%3Aestadisticas-certificacion-especies-foresales&amp;catid=42%3Acertificaciondesemillas&amp;Itemid=161&amp;lang=es"/>
-    <hyperlink ref="Q178" r:id="rId305" display="http://www.ofinase.go.cr/index.php?option=com_content&amp;view=article&amp;id=159%3Aestadisticas-certificacion-especies-foresales&amp;catid=42%3Acertificaciondesemillas&amp;Itemid=161&amp;lang=es"/>
-    <hyperlink ref="W178" r:id="rId306" display="http://www.ofinase.go.cr/index.php?option=com_content&amp;view=article&amp;id=159%3Aestadisticas-certificacion-especies-foresales&amp;catid=42%3Acertificaciondesemillas&amp;Itemid=161&amp;lang=es"/>
-    <hyperlink ref="W179" r:id="rId307" display="http://www.oficinaforestalcr.org/article/usos-y-aportes-de-la-madera-en-costa-rica/"/>
-    <hyperlink ref="Q180" r:id="rId308" display="http://www.inec.go.cr/economia/indices-de-precios-de-la-construccion"/>
-    <hyperlink ref="W180" r:id="rId309" display="http://www.inec.go.cr/economia/estadisticas-de-la-construccion"/>
-    <hyperlink ref="Q181" r:id="rId310" display="http://www.inec.go.cr/economia/estadisticas-de-la-construccion"/>
-    <hyperlink ref="W181" r:id="rId311" display="http://www.inec.go.cr/economia/estadisticas-de-la-construccion"/>
-    <hyperlink ref="Q182" r:id="rId312" display="http://sistemas.inec.cr/pad4/index.php/catalog/161/study-description"/>
-    <hyperlink ref="W182" r:id="rId313" display="http://sistemas.inec.cr/pad4/index.php/catalog/161/study-description"/>
-    <hyperlink ref="Q183" r:id="rId314" display="http://sistemas.inec.cr/pad4/index.php/catalog/161/study-description"/>
-    <hyperlink ref="W183" r:id="rId315" display="http://sistemas.inec.cr/pad4/index.php/catalog/161/study-description"/>
-    <hyperlink ref="Q184" r:id="rId316" display="http://sistemas.inec.cr/pad4/index.php/catalog/157/study-description"/>
-    <hyperlink ref="W184" r:id="rId317" display="http://sistemas.inec.cr/pad4/index.php/catalog/157/study-description"/>
-    <hyperlink ref="Q185" r:id="rId318" display="http://sistemas.inec.cr/pad4/index.php/catalog/157/study-description"/>
-    <hyperlink ref="W185" r:id="rId319" display="http://www.inec.go.cr/economia/sector-informal"/>
-    <hyperlink ref="W186" r:id="rId320" display="http://biblioteca.ccp.ucr.ac.cr/handle/123456789/1392"/>
-    <hyperlink ref="W187" r:id="rId321" display="http://biblioteca.ccp.ucr.ac.cr/handle/123456789/1392"/>
-    <hyperlink ref="Q188" r:id="rId322" location="HERMES_ACCORDION_1_4" display="http://fodesaf.go.cr/Programas%20Sociales/indicadores.html#HERMES_ACCORDION_1_4"/>
-    <hyperlink ref="W188" r:id="rId323" location="HERMES_ACCORDION_1_4" display="http://fodesaf.go.cr/Programas%20Sociales/indicadores.html#HERMES_ACCORDION_1_4"/>
-    <hyperlink ref="W189" r:id="rId324" display="http://fodesaf.go.cr/fodesaf/Archivos%20de%20Estudios%20IICE/Informe%20de%20indicadores%202014%20y%20comparativo%202011-2014.pdf"/>
-    <hyperlink ref="W190" r:id="rId325" display="http://fodesaf.go.cr/fodesaf/Archivos%20de%20Estudios%20IICE/Informe%20de%20indicadores%202014%20y%20comparativo%202011-2014.pdf"/>
-    <hyperlink ref="Q191" r:id="rId326" display="http://desarrollohumano.or.cr/mapa-cantonal/index.php/informacion-adicional"/>
-    <hyperlink ref="W191" r:id="rId327" display="http://desarrollohumano.or.cr/mapa-cantonal/index.php/informacion-adicional"/>
-    <hyperlink ref="Q192" r:id="rId328" display="http://desarrollohumano.or.cr/mapa-cantonal/index.php/informacion-adicional"/>
-    <hyperlink ref="W192" r:id="rId329" display="http://desarrollohumano.or.cr/mapa-cantonal/index.php/informacion-adicional"/>
-    <hyperlink ref="Q193" r:id="rId330" display="http://www.pani.go.cr/publicaciones/documentos/adopciones/542-procesos-del-departamento-de-adopciones-del-pani/file"/>
-    <hyperlink ref="W193" r:id="rId331" display="http://www.pani.go.cr/publicaciones/documentos/adopciones"/>
-    <hyperlink ref="Q194" r:id="rId332" display="http://www.pani.go.cr/publicaciones/documentos/adopciones/542-procesos-del-departamento-de-adopciones-del-pani/file"/>
-    <hyperlink ref="W194" r:id="rId333" display="http://www.pani.go.cr/publicaciones/documentos/adopciones"/>
-    <hyperlink ref="Q195" r:id="rId334" display="http://faostat3.fao.org/browse/area/48/S"/>
-    <hyperlink ref="W195" r:id="rId335" display="http://faostat3.fao.org/browse/area/48/S"/>
-    <hyperlink ref="Q196" r:id="rId336" display="http://faostat3.fao.org/browse/area/48/S"/>
-    <hyperlink ref="W196" r:id="rId337" display="http://faostat3.fao.org/browse/area/48/S"/>
-    <hyperlink ref="W197" r:id="rId338" display="http://www.fao.org/3/a-i4646s.pdf"/>
-    <hyperlink ref="Q198" r:id="rId339" display="ftp://ftp.fao.org/FI/STAT/summary/a-0a.pdf"/>
-    <hyperlink ref="W198" r:id="rId340" display="http://www.fao.org/fishery/statistics/global-commodities-production/es"/>
-    <hyperlink ref="Q199" r:id="rId341" display="http://www.mtss.go.cr/elmininisterio/transparencia/planes/Plan%20de%20Metas%20Sectoriales.pdf"/>
-    <hyperlink ref="W199" r:id="rId342" display="http://www.mtss.go.cr/elmininisterio/transparencia/planes/Plan%20de%20Metas%20Sectoriales.pdf"/>
-    <hyperlink ref="Q200" r:id="rId343" display="ftp://ftp.fao.org/docrep/fao/005/x1168e/x1168e.pdf"/>
-    <hyperlink ref="W200" r:id="rId344" display="ftp://ftp.fao.org/docrep/fao/005/x1168e/x1168e.pdf"/>
-    <hyperlink ref="Q201" r:id="rId345" display="http://www.jps.go.cr/AccionSocial/proyectos/2011/2011Informeanual.pdf"/>
-    <hyperlink ref="W201" r:id="rId346" display="http://www.jps.go.cr/AccionSocial/proyectos/2011/2011Informeanual.pdf"/>
-    <hyperlink ref="F202" r:id="rId347" display="EDUCALCOHOL"/>
-    <hyperlink ref="W202" r:id="rId348" display="https://www.ucr.ac.cr/noticias/2013/09/04/543-de-la-poblacion-no-consume-licor.html"/>
-    <hyperlink ref="W203" r:id="rId349" display="http://biblioteca.icap.ac.cr/BLIVI/COLECCION_UNPAN/BOL_JUNIO_2012_51/FLACSO/carlos_sojo.pdf"/>
-    <hyperlink ref="Q204" r:id="rId350" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
-    <hyperlink ref="W204" r:id="rId351" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
-    <hyperlink ref="Q205" r:id="rId352" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
-    <hyperlink ref="W205" r:id="rId353" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
-    <hyperlink ref="Q206" r:id="rId354" display="http://estadisticas.cepal.org/cepalstat/Perfil_Nacional_Social.html?pais=CRI&amp;idioma=spanish"/>
-    <hyperlink ref="W206" r:id="rId355" display="http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/Portada.asp"/>
-    <hyperlink ref="Q207" r:id="rId356" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
-    <hyperlink ref="W207" r:id="rId357" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
-    <hyperlink ref="Q208" r:id="rId358" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
-    <hyperlink ref="W208" r:id="rId359" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
-    <hyperlink ref="Q209" r:id="rId360" display="http://www.redfeminista-noviolenciaca.org/node/19"/>
-    <hyperlink ref="W209" r:id="rId361" display="http://www.redfeminista-noviolenciaca.org/node/19"/>
-    <hyperlink ref="Q210" r:id="rId362" display="http://estadisticas.cepal.org/cepalstat/Perfil_Nacional_Social.html?pais=CRI&amp;idioma=spanish"/>
-    <hyperlink ref="W210" r:id="rId363" display="http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/Portada.asp"/>
-    <hyperlink ref="W211" r:id="rId364" display="http://www.colectiva-cr.com/sites/default/files/Docs/DS%20en%20Costa%20Rica/Actitudes%20y%20estereotipos%20del%20personal%20de%20salud.pdf"/>
-    <hyperlink ref="Q212" r:id="rId365" display="http://estadisticas.cepal.org/cepalstat/Perfil_Nacional_Social.html?pais=CRI&amp;idioma=spanish"/>
-    <hyperlink ref="W212" r:id="rId366" display="http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/Portada.asp"/>
-    <hyperlink ref="Q213" r:id="rId367" display="http://www.inamu.go.cr/254"/>
-    <hyperlink ref="W213" r:id="rId368" display="http://www.inamu.go.cr/254"/>
-    <hyperlink ref="W214" r:id="rId369" display="http://www.inamu.go.cr/documents/10179/11403/ARTICULO+salud+encuesta+FINAL.pdf/5d83cc97-feda-459a-8470-98304f595434"/>
-    <hyperlink ref="W215" r:id="rId370" display="https://es.unesco.org/gem-report/g%C3%A9nero-y-la-ept-2000-2015"/>
-    <hyperlink ref="Q216" r:id="rId371" display="http://www.mep.go.cr/sites/default/files/page/adjuntos/planilla-alimentos-julio-2016.pdf"/>
-    <hyperlink ref="W216" r:id="rId372" display="http://www.mep.go.cr/programas-y-proyectos/programa-de-alimentacion-y-nutricion"/>
-    <hyperlink ref="Q217" r:id="rId373" display="http://www.mep.go.cr/sites/default/files/page/adjuntos/planilla-huertas-estudiantiles-julio-2016.pdf"/>
-    <hyperlink ref="W217" r:id="rId374" display="http://www.mep.go.cr/programas-y-proyectos/programa-nacional-de-huertas"/>
-    <hyperlink ref="Q218" r:id="rId375" display="http://www.mep.go.cr/sites/default/files/page/adjuntos/planilla-huertas-estudiantiles-julio-2016.pdf"/>
-    <hyperlink ref="W218" r:id="rId376" display="http://www.mep.go.cr/programas-y-proyectos/programa-nacional-de-huertas"/>
+    <hyperlink ref="W90" r:id="rId149" display="http://www.asvocr.org/asvo/info.php"/>
+    <hyperlink ref="Q91" r:id="rId150" display="http://www.idespo.una.ac.cr/index.php/biblioteca/670/showCategory/60/mil-y-una-encuestas"/>
+    <hyperlink ref="W91" r:id="rId151" display="http://www.idespo.una.ac.cr/index.php/biblioteca/670/all_categories"/>
+    <hyperlink ref="Q92" r:id="rId152" display="https://simacr.go.cr/index.php/analisis-pecuario"/>
+    <hyperlink ref="W92" r:id="rId153" display="https://simacr.go.cr/"/>
+    <hyperlink ref="Q93" r:id="rId154" display="https://simacr.go.cr/index.php/preciosgranosbasicos"/>
+    <hyperlink ref="W93" r:id="rId155" display="https://simacr.go.cr/"/>
+    <hyperlink ref="Q94" r:id="rId156" display="https://cgrweb.cgr.go.cr/apex/f?p=164:10:0::NO:::"/>
+    <hyperlink ref="W94" r:id="rId157" display="http://www.cgr.go.cr/consultas/sistemas-consulta-ciudadana"/>
+    <hyperlink ref="Q95" r:id="rId158" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/transporte.html"/>
+    <hyperlink ref="W95" r:id="rId159" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/"/>
+    <hyperlink ref="Q96" r:id="rId160" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/educacion.html"/>
+    <hyperlink ref="W96" r:id="rId161" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/"/>
+    <hyperlink ref="Q97" r:id="rId162" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/seguridad.html"/>
+    <hyperlink ref="W97" r:id="rId163" display="https://cgrfiles.cgr.go.cr/publico/docsweb/esc/"/>
+    <hyperlink ref="W98" r:id="rId164" display="http://www.fonabe.go.cr/Informacion"/>
+    <hyperlink ref="Q99" r:id="rId165" display="http://www.fonabe.go.cr/Informacion/Estadisticas/Estadisticas2009/Paginas/Principal.aspx"/>
+    <hyperlink ref="W99" r:id="rId166" display="http://www.fonabe.go.cr/Informacion/Estadisticas"/>
+    <hyperlink ref="Q100" r:id="rId167" display="http://www.imas.go.cr/biblioteca/"/>
+    <hyperlink ref="W100" r:id="rId168" display="http://www.imas.go.cr/biblioteca/"/>
+    <hyperlink ref="Q101" r:id="rId169" display="http://www.imas.go.cr/biblioteca/"/>
+    <hyperlink ref="W101" r:id="rId170" display="http://www.imas.go.cr/biblioteca/"/>
+    <hyperlink ref="W102" r:id="rId171" display="http://www.unicef.org/costarica/"/>
+    <hyperlink ref="W103" r:id="rId172" display="http://www.unicef.org/costarica/"/>
+    <hyperlink ref="W104" r:id="rId173" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="Q105" r:id="rId174" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="W105" r:id="rId175" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="Q106" r:id="rId176" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="W106" r:id="rId177" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="Q107" r:id="rId178" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="W107" r:id="rId179" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="Q108" r:id="rId180" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="W108" r:id="rId181" display="http://www.conarroz.com/index.php?option=com_content&amp;view=article&amp;id=70&amp;Itemid=98"/>
+    <hyperlink ref="Q109" r:id="rId182" display="https://www.corbana.co.cr/categories/estadisticas-bananeras"/>
+    <hyperlink ref="W109" r:id="rId183" display="https://www.corbana.co.cr/categories/search?utf8=%E2%9C%93&amp;q=estadistica&amp;commit="/>
+    <hyperlink ref="Q110" r:id="rId184" display="http://www.corfoga.org/images/public/documentos/pdf/otros_cuadros.pdf"/>
+    <hyperlink ref="W110" r:id="rId185" display="http://www.corfoga.org/censo.php"/>
+    <hyperlink ref="Q111" r:id="rId186" display="http://www.bomberos.go.cr/estadisticas/"/>
+    <hyperlink ref="W111" r:id="rId187" display="http://www.bomberos.go.cr/"/>
+    <hyperlink ref="Q112" r:id="rId188" display="http://www.dhr.go.cr/la_defensoria/proveeduria.html"/>
+    <hyperlink ref="W112" r:id="rId189" display="http://www.dhr.go.cr/la_defensoria/proveeduria.html"/>
+    <hyperlink ref="Q113" r:id="rId190" display="http://www.dhr.go.cr/defensoria_transparente/bienes_inmuebles/bienes_inmuebles.pdf"/>
+    <hyperlink ref="W113" r:id="rId191" display="http://www.dhr.go.cr/defensoria_transparente/dhr_transparente.html"/>
+    <hyperlink ref="Q114" r:id="rId192" location="HERMES_TABS_9_1" display="http://www.migracion.go.cr/institucion/estadisticas_documentos.html#HERMES_TABS_9_1"/>
+    <hyperlink ref="W114" r:id="rId193" display="http://www.migracion.go.cr/institucion/estadisticas_documentos.html"/>
+    <hyperlink ref="W115" r:id="rId194" display="http://www.archivonacional.go.cr/index.php?option=com_content&amp;view=category&amp;id=54&amp;Itemid=85"/>
+    <hyperlink ref="W116" r:id="rId195" display="http://www.cen-cinai.go.cr/"/>
+    <hyperlink ref="W117" r:id="rId196" display="http://www.cen-cinai.go.cr/"/>
+    <hyperlink ref="W118" r:id="rId197" display="http://www.cen-cinai.go.cr/"/>
+    <hyperlink ref="W119" r:id="rId198" display="http://www.dinadeco.go.cr/index.php?module=pagesetter&amp;tid=19"/>
+    <hyperlink ref="Q120" r:id="rId199" display="http://www.eca.or.cr/"/>
+    <hyperlink ref="W120" r:id="rId200" display="http://www.eca.or.cr/"/>
+    <hyperlink ref="Q121" r:id="rId201" display="http://www.fonafifo.go.cr/psa/estadisticas_psa.html"/>
+    <hyperlink ref="W121" r:id="rId202" display="http://www.fonafifo.go.cr/psa/index.html"/>
+    <hyperlink ref="Q122" r:id="rId203" display="http://sipsa.fonafifo.com/ppsa/Reportes/reportecita/reportecitas.html"/>
+    <hyperlink ref="W122" r:id="rId204" display="http://www.fonafifo.go.cr/"/>
+    <hyperlink ref="Q123" r:id="rId205" display="http://sipsa.fonafifo.com/webconsultaor/consultascalificacion.aspx"/>
+    <hyperlink ref="W123" r:id="rId206" display="http://www.fonafifo.go.cr/"/>
+    <hyperlink ref="W124" r:id="rId207" display="https://www.grupoice.com/wps/portal/ICE/AcercadelGrupoICE/Gobierno%20corporativo/Informes/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizQMtHA093A183M09nA0cfUPMHA3NXY0MA0z0w_Ep8PUy1Y8iRr8BDuBoQJx-PAqi8Bsfrh-FaoWFb7CxgaOhpY97iIWJobuhIQEFjkboCrCEASFXFOSGhkYYZHqmOyoqAgAH65mm/dz/d5/L2dBISEvZ0FBIS9nQSEh/"/>
+    <hyperlink ref="W125" r:id="rId208" display="https://www.grupoice.com/wps/portal/ICE/AcercadelGrupoICE/Gobierno%20corporativo/Informes/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizQMtHA093A183M09nA0cfUPMHA3NXY0MA0z0w_Ep8PUy1Y8iRr8BDuBoQJx-PAqi8Bsfrh-FaoWFb7CxgaOhpY97iIWJobuhIQEFjkboCrCEASFXFOSGhkYYZHqmOyoqAgAH65mm/dz/d5/L2dBISEvZ0FBIS9nQSEh/"/>
+    <hyperlink ref="Q126" r:id="rId209" display="https://www.incopesca.go.cr/publicaciones/estadiscticas/historico/2014.html"/>
+    <hyperlink ref="W126" r:id="rId210" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
+    <hyperlink ref="Q127" r:id="rId211" display="https://www.incopesca.go.cr/publicaciones/estadiscticas/historico/2014.html"/>
+    <hyperlink ref="W127" r:id="rId212" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
+    <hyperlink ref="Q128" r:id="rId213" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
+    <hyperlink ref="W128" r:id="rId214" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
+    <hyperlink ref="Q129" r:id="rId215" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
+    <hyperlink ref="W129" r:id="rId216" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
+    <hyperlink ref="Q130" r:id="rId217" display="https://www.incopesca.go.cr/publicaciones/estadiscticas/centros_acopio/Centro%20de%20acopio%201.jpg"/>
+    <hyperlink ref="W130" r:id="rId218" display="https://www.incopesca.go.cr/publicaciones/estadisticas.html"/>
+    <hyperlink ref="Q131" r:id="rId219" display="http://www.incop.go.cr/formato_tradicional.php?p=129"/>
+    <hyperlink ref="W131" r:id="rId220" display="http://www.incop.go.cr/formato_tradicional.php?p=129"/>
+    <hyperlink ref="Q132" r:id="rId221" display="http://www.incop.go.cr/Estadisticas.Web/Default.aspx"/>
+    <hyperlink ref="W132" r:id="rId222" display="http://www.incop.go.cr/Estadisticas.Web/Default.aspx"/>
+    <hyperlink ref="Q133" r:id="rId223" display="http://www.ict.go.cr/es/documentos-institucionales/estad%C3%ADsticas/encuestas/cruceros-puertos-mar%C3%ADtimos/temporadas/545-2014-2015/file.html"/>
+    <hyperlink ref="W133" r:id="rId224" display="http://www.ict.go.cr/es/estadisticas/encuestas.html"/>
+    <hyperlink ref="Q134" r:id="rId225" display="http://www.ict.go.cr/es/documentos-institucionales/estad%C3%ADsticas/encuestas/aeropuertos/residentes-2/2010-8/535-i-semestre-2010-juan-santamaria/file.html"/>
+    <hyperlink ref="W134" r:id="rId226" display="http://www.ict.go.cr/es/estadisticas/encuestas.html"/>
+    <hyperlink ref="W135" r:id="rId227" display="http://www.ict.go.cr/es/estadisticas/informes-estadisticos.html"/>
+    <hyperlink ref="Q136" r:id="rId228" display="http://www.inciensa.sa.cr/estadisticas/seriesgraficas.aspx"/>
+    <hyperlink ref="W136" r:id="rId229" display="http://www.inciensa.sa.cr/vigilancia_epidemiologica/estadisticas.aspx"/>
+    <hyperlink ref="Q137" r:id="rId230" display="http://www.icd.go.cr/portalicd/index.php/uid-observatorio/est-uied/control-oferta"/>
+    <hyperlink ref="W137" r:id="rId231" display="http://www.icd.go.cr/portalicd/index.php/uid-observatorio/est-uied/control-oferta"/>
+    <hyperlink ref="Q138" r:id="rId232" display="http://www.icd.go.cr/portalicd/index.php/uid-observatorio/est-uied/reduccion-demanda-uid"/>
+    <hyperlink ref="W138" r:id="rId233" display="http://www.icd.go.cr/portalicd/index.php/uid-observatorio/est-uied/reduccion-demanda-uid"/>
+    <hyperlink ref="Q139" r:id="rId234" display="http://www.icd.go.cr/portalicd/images/docs/uid/investigaciones/Trastornos%20de%20la%20Conducta%20Alimentaria_ENN_2008.pdf"/>
+    <hyperlink ref="W139" r:id="rId235" display="http://www.icd.go.cr/portalicd/index.php/public-uied/investigaciones-uid"/>
+    <hyperlink ref="Q140" r:id="rId236" display="http://www.icd.go.cr/portalicd/images/docs/uid/investigaciones/Encuesta_Trfico_colegios2015_Prevencin.pdf"/>
+    <hyperlink ref="W140" r:id="rId237" display="http://www.icd.go.cr/portalicd/index.php/public-uied/investigaciones-uid"/>
+    <hyperlink ref="Q141" r:id="rId238" display="https://www.inder.go.cr/acerca_del_inder/transparencia/FincasComprasAdminChinchilla.pdf"/>
+    <hyperlink ref="W141" r:id="rId239" display="https://www.inder.go.cr/acerca_del_inder/transparencia/"/>
+    <hyperlink ref="W142" r:id="rId240" display="http://www.infocoop.go.cr/cooperativismo/estadisticas.html"/>
+    <hyperlink ref="W143" r:id="rId241" location="info" display="http://www.mjp.go.cr/Informacion/Estadistica.aspx#info"/>
+    <hyperlink ref="W144" r:id="rId242" location="elec" display="http://www.mjp.go.cr/Estadistica/InformeElectoral.aspx#elec"/>
+    <hyperlink ref="Q145" r:id="rId243" display="http://www.rnp.go.cr/Entidades%20Autorizadas.pdf"/>
+    <hyperlink ref="W145" r:id="rId244" location="HERMES_TABS_2_1" display="http://www.rnp.go.cr/Info%201.htm#HERMES_TABS_2_1"/>
+    <hyperlink ref="Q146" r:id="rId245" display="http://www.japdeva.go.cr/administracion_portuaria/estadisticas/2014/ANUARIO%20ESTADISTICO%202015%202%20SI.PDF"/>
+    <hyperlink ref="W146" r:id="rId246" display="http://www.japdeva.go.cr/administracion_portuaria/estadistica_portuaria.html"/>
+    <hyperlink ref="Q147" r:id="rId247" display="http://www.inec.go.cr/empleo"/>
+    <hyperlink ref="W147" r:id="rId248" display="http://www.inec.go.cr/empleo"/>
+    <hyperlink ref="Q148" r:id="rId249" display="http://www.inec.go.cr/empleo/temas-especiales-de-empleo"/>
+    <hyperlink ref="W148" r:id="rId250" display="http://www.inec.go.cr/empleo/temas-especiales-de-empleo"/>
+    <hyperlink ref="Q149" r:id="rId251" display="http://www.inec.go.cr/poblacion/estimaciones-y-proyecciones-de-poblacion"/>
+    <hyperlink ref="W149" r:id="rId252" display="http://www.inec.go.cr/poblacion/estimaciones-y-proyecciones-de-poblacion"/>
+    <hyperlink ref="Q150" r:id="rId253" display="http://www.inec.go.cr/anuario-estadistico"/>
+    <hyperlink ref="W150" r:id="rId254" display="http://www.inec.go.cr/anuario-estadistico"/>
+    <hyperlink ref="Q151" r:id="rId255" display="http://www.inec.go.cr/censos/censo-agropecuario-2014"/>
+    <hyperlink ref="W151" r:id="rId256" display="http://www.inec.go.cr/censos/censo-agropecuario-2014"/>
+    <hyperlink ref="Q152" r:id="rId257" display="http://www.inec.go.cr/estadisticas-vitales"/>
+    <hyperlink ref="W152" r:id="rId258" display="http://www.inec.go.cr/sites/default/files/documetos-biblioteca-virtual/mepoblacdefedadfertil2010-2012.pdf"/>
+    <hyperlink ref="Q153" r:id="rId259" display="http://www.inec.go.cr/sites/default/files/documetos-biblioteca-virtual/mepoblacdefedadfertil2010-2012.pdf"/>
+    <hyperlink ref="W153" r:id="rId260" display="http://www.inec.go.cr/sites/default/files/documetos-biblioteca-virtual/mepoblacdefedadfertil2010-2012.pdf"/>
+    <hyperlink ref="Q154" r:id="rId261" display="http://www.inec.go.cr/poblacion/estimaciones-y-proyecciones-de-poblacion"/>
+    <hyperlink ref="W154" r:id="rId262" display="http://www.inec.go.cr/metodologias"/>
+    <hyperlink ref="Q155" r:id="rId263" display="http://www.inec.go.cr/poblacion/estimaciones-y-proyecciones-de-poblacion"/>
+    <hyperlink ref="W155" r:id="rId264" display="http://www.inec.go.cr/metodologias"/>
+    <hyperlink ref="W156" r:id="rId265" display="http://www.inec.go.cr/sites/default/files/documetos-biblioteca-virtual/recatalogoproductos2016.pdf"/>
+    <hyperlink ref="W157" r:id="rId266" display="http://www.inec.go.cr/publicaciones"/>
+    <hyperlink ref="Q158" r:id="rId267" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas/estadistica-de-cancer-registro-nacional-tumores/mortalidad"/>
+    <hyperlink ref="W158" r:id="rId268" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas"/>
+    <hyperlink ref="Q159" r:id="rId269" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas/estadistica-mortalidad-infantil-y-materna"/>
+    <hyperlink ref="W159" r:id="rId270" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas"/>
+    <hyperlink ref="Q160" r:id="rId271" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas/estadistica-mortalidad-infantil-y-materna"/>
+    <hyperlink ref="W160" r:id="rId272" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos/estadisticas"/>
+    <hyperlink ref="Q161" r:id="rId273" display="http://www.mag.go.cr/biblioteca_virtual_animal/Encuesta-Ganadera-2004.pdf"/>
+    <hyperlink ref="W161" r:id="rId274" display="http://www.mag.go.cr/buscador/Default.aspx"/>
+    <hyperlink ref="W162" r:id="rId275" display="http://www.mag.go.cr/buscador/Default.aspx"/>
+    <hyperlink ref="Q163" r:id="rId276" display="http://www.meic.go.cr/web/761/datos-abiertos/pyme/registro-de-empresas"/>
+    <hyperlink ref="W163" r:id="rId277" display="http://www.meic.go.cr/web/755/datos-abiertos/pyme"/>
+    <hyperlink ref="Q164" r:id="rId278" display="https://view.officeapps.live.com/op/view.aspx?src=http://www.hacienda.go.cr/docs/57c5c490e19a1_Importacion%20perfeccionamiento%20activo%20julio%202016.xlsx"/>
+    <hyperlink ref="W164" r:id="rId279" display="http://www.hacienda.go.cr/contenido/370-estadisticas-de-importacion-y-exportacion"/>
+    <hyperlink ref="Q165" r:id="rId280" display="https://view.officeapps.live.com/op/view.aspx?src=http://www.hacienda.go.cr/docs/57c5c4f1dff2e_Exportacion%20nacional%20julio%202016.xlsx"/>
+    <hyperlink ref="W165" r:id="rId281" display="http://www.hacienda.go.cr/contenido/370-estadisticas-de-importacion-y-exportacion"/>
+    <hyperlink ref="W166" r:id="rId282" display="http://www.mjp.go.cr/documentacion/Download.aspx?1044"/>
+    <hyperlink ref="W167" r:id="rId283" display="https://www.ministeriodesalud.go.cr/index.php/vigilancia-de-la-salud/estadisticas-y-bases-de-datos"/>
+    <hyperlink ref="Q168" r:id="rId284" display="http://www.seguridadpublica.go.cr/direccion/armamento/estadisticas.aspx"/>
+    <hyperlink ref="W168" r:id="rId285" display="http://www.seguridadpublica.go.cr/direccion/armamento/estadisticas.aspx"/>
+    <hyperlink ref="Q169" r:id="rId286" display="http://www.seguridadpublica.go.cr/direccion/seguridad_privada/estadisticas.aspx"/>
+    <hyperlink ref="W169" r:id="rId287" display="http://www.seguridadpublica.go.cr/direccion/seguridad_privada/estadisticas.aspx"/>
+    <hyperlink ref="Q170" r:id="rId288" display="https://www.google.com.co/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;cad=rja&amp;uact=8&amp;ved=0ahUKEwiV9_H1-YDPAhVBlB4KHSsNAlwQFggcMAA&amp;url=http%3A%2F%2Fwww.seguridadpublica.go.cr%2Fdireccion%2Farmamento%2FLista_de_mercancias_que_requieren_aprobacion_de_la_DGA_para_su_desalmacenaje.pdf&amp;usg=AFQjCNH_2obmY0AfaI3GAEiTg8y3V8SxqQ"/>
+    <hyperlink ref="W170" r:id="rId289" display="https://www.google.com.co/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;cad=rja&amp;uact=8&amp;ved=0ahUKEwiV9_H1-YDPAhVBlB4KHSsNAlwQFggcMAA&amp;url=http%3A%2F%2Fwww.seguridadpublica.go.cr%2Fdireccion%2Farmamento%2FLista_de_mercancias_que_requieren_aprobacion_de_la_DGA_para_su_desalmacenaje.pdf&amp;usg=AFQjCNH_2obmY0AfaI3GAEiTg8y3V8SxqQ"/>
+    <hyperlink ref="Q171" r:id="rId290" display="http://indicadores.micit.go.cr/dashboards/7953/inversion-en-act-e-id-2011/"/>
+    <hyperlink ref="W171" r:id="rId291" display="http://indicadores.micit.go.cr/"/>
+    <hyperlink ref="Q172" r:id="rId292" display="http://indicadores.micit.go.cr/dashboards/7971/recursos-humanos-en-id-2011/"/>
+    <hyperlink ref="W172" r:id="rId293" display="http://indicadores.micit.go.cr/"/>
+    <hyperlink ref="Q173" r:id="rId294" display="http://indicadores.micit.go.cr/dashboards/7957/tics-en-empresas-2011/"/>
+    <hyperlink ref="W173" r:id="rId295" display="http://indicadores.micit.go.cr/"/>
+    <hyperlink ref="Q174" r:id="rId296" display="http://indicadores.micit.go.cr/dashboards/7959/actividades-innovacion-en-empresas-2011/"/>
+    <hyperlink ref="W174" r:id="rId297" display="http://indicadores.micit.go.cr/"/>
+    <hyperlink ref="Q175" r:id="rId298" display="http://indicadores.micit.go.cr/dashboards/7990/actividades-id-en-empresas-2011/"/>
+    <hyperlink ref="W175" r:id="rId299" display="http://indicadores.micit.go.cr/"/>
+    <hyperlink ref="Q176" r:id="rId300" display="http://www.comex.go.cr/estadisticas/aranceles.aspx"/>
+    <hyperlink ref="W176" r:id="rId301" display="http://www.comex.go.cr/estadisticas/index.aspx"/>
+    <hyperlink ref="Q177" r:id="rId302" display="http://www.ofinase.go.cr/index.php?option=com_content&amp;view=article&amp;id=159%3Aestadisticas-certificacion-especies-foresales&amp;catid=42%3Acertificaciondesemillas&amp;Itemid=161&amp;lang=es"/>
+    <hyperlink ref="W177" r:id="rId303" display="http://www.ofinase.go.cr/index.php?option=com_content&amp;view=article&amp;id=159%3Aestadisticas-certificacion-especies-foresales&amp;catid=42%3Acertificaciondesemillas&amp;Itemid=161&amp;lang=es"/>
+    <hyperlink ref="Q178" r:id="rId304" display="http://www.ofinase.go.cr/index.php?option=com_content&amp;view=article&amp;id=159%3Aestadisticas-certificacion-especies-foresales&amp;catid=42%3Acertificaciondesemillas&amp;Itemid=161&amp;lang=es"/>
+    <hyperlink ref="W178" r:id="rId305" display="http://www.ofinase.go.cr/index.php?option=com_content&amp;view=article&amp;id=159%3Aestadisticas-certificacion-especies-foresales&amp;catid=42%3Acertificaciondesemillas&amp;Itemid=161&amp;lang=es"/>
+    <hyperlink ref="W179" r:id="rId306" display="http://www.oficinaforestalcr.org/article/usos-y-aportes-de-la-madera-en-costa-rica/"/>
+    <hyperlink ref="Q180" r:id="rId307" display="http://www.inec.go.cr/economia/indices-de-precios-de-la-construccion"/>
+    <hyperlink ref="W180" r:id="rId308" display="http://www.inec.go.cr/economia/estadisticas-de-la-construccion"/>
+    <hyperlink ref="Q181" r:id="rId309" display="http://www.inec.go.cr/economia/estadisticas-de-la-construccion"/>
+    <hyperlink ref="W181" r:id="rId310" display="http://www.inec.go.cr/economia/estadisticas-de-la-construccion"/>
+    <hyperlink ref="Q182" r:id="rId311" display="http://sistemas.inec.cr/pad4/index.php/catalog/161/study-description"/>
+    <hyperlink ref="W182" r:id="rId312" display="http://sistemas.inec.cr/pad4/index.php/catalog/161/study-description"/>
+    <hyperlink ref="Q183" r:id="rId313" display="http://sistemas.inec.cr/pad4/index.php/catalog/161/study-description"/>
+    <hyperlink ref="W183" r:id="rId314" display="http://sistemas.inec.cr/pad4/index.php/catalog/161/study-description"/>
+    <hyperlink ref="Q184" r:id="rId315" display="http://sistemas.inec.cr/pad4/index.php/catalog/157/study-description"/>
+    <hyperlink ref="W184" r:id="rId316" display="http://sistemas.inec.cr/pad4/index.php/catalog/157/study-description"/>
+    <hyperlink ref="Q185" r:id="rId317" display="http://sistemas.inec.cr/pad4/index.php/catalog/157/study-description"/>
+    <hyperlink ref="W185" r:id="rId318" display="http://www.inec.go.cr/economia/sector-informal"/>
+    <hyperlink ref="W186" r:id="rId319" display="http://biblioteca.ccp.ucr.ac.cr/handle/123456789/1392"/>
+    <hyperlink ref="W187" r:id="rId320" display="http://biblioteca.ccp.ucr.ac.cr/handle/123456789/1392"/>
+    <hyperlink ref="Q188" r:id="rId321" location="HERMES_ACCORDION_1_4" display="http://fodesaf.go.cr/Programas%20Sociales/indicadores.html#HERMES_ACCORDION_1_4"/>
+    <hyperlink ref="W188" r:id="rId322" location="HERMES_ACCORDION_1_4" display="http://fodesaf.go.cr/Programas%20Sociales/indicadores.html#HERMES_ACCORDION_1_4"/>
+    <hyperlink ref="W189" r:id="rId323" display="http://fodesaf.go.cr/fodesaf/Archivos%20de%20Estudios%20IICE/Informe%20de%20indicadores%202014%20y%20comparativo%202011-2014.pdf"/>
+    <hyperlink ref="W190" r:id="rId324" display="http://fodesaf.go.cr/fodesaf/Archivos%20de%20Estudios%20IICE/Informe%20de%20indicadores%202014%20y%20comparativo%202011-2014.pdf"/>
+    <hyperlink ref="Q191" r:id="rId325" display="http://desarrollohumano.or.cr/mapa-cantonal/index.php/informacion-adicional"/>
+    <hyperlink ref="W191" r:id="rId326" display="http://desarrollohumano.or.cr/mapa-cantonal/index.php/informacion-adicional"/>
+    <hyperlink ref="Q192" r:id="rId327" display="http://desarrollohumano.or.cr/mapa-cantonal/index.php/informacion-adicional"/>
+    <hyperlink ref="W192" r:id="rId328" display="http://desarrollohumano.or.cr/mapa-cantonal/index.php/informacion-adicional"/>
+    <hyperlink ref="Q193" r:id="rId329" display="http://www.pani.go.cr/publicaciones/documentos/adopciones/542-procesos-del-departamento-de-adopciones-del-pani/file"/>
+    <hyperlink ref="W193" r:id="rId330" display="http://www.pani.go.cr/publicaciones/documentos/adopciones"/>
+    <hyperlink ref="Q194" r:id="rId331" display="http://www.pani.go.cr/publicaciones/documentos/adopciones/542-procesos-del-departamento-de-adopciones-del-pani/file"/>
+    <hyperlink ref="W194" r:id="rId332" display="http://www.pani.go.cr/publicaciones/documentos/adopciones"/>
+    <hyperlink ref="Q195" r:id="rId333" display="http://faostat3.fao.org/browse/area/48/S"/>
+    <hyperlink ref="W195" r:id="rId334" display="http://faostat3.fao.org/browse/area/48/S"/>
+    <hyperlink ref="Q196" r:id="rId335" display="http://faostat3.fao.org/browse/area/48/S"/>
+    <hyperlink ref="W196" r:id="rId336" display="http://faostat3.fao.org/browse/area/48/S"/>
+    <hyperlink ref="W197" r:id="rId337" display="http://www.fao.org/3/a-i4646s.pdf"/>
+    <hyperlink ref="Q198" r:id="rId338" display="ftp://ftp.fao.org/FI/STAT/summary/a-0a.pdf"/>
+    <hyperlink ref="W198" r:id="rId339" display="http://www.fao.org/fishery/statistics/global-commodities-production/es"/>
+    <hyperlink ref="Q199" r:id="rId340" display="http://www.mtss.go.cr/elmininisterio/transparencia/planes/Plan%20de%20Metas%20Sectoriales.pdf"/>
+    <hyperlink ref="W199" r:id="rId341" display="http://www.mtss.go.cr/elmininisterio/transparencia/planes/Plan%20de%20Metas%20Sectoriales.pdf"/>
+    <hyperlink ref="Q200" r:id="rId342" display="ftp://ftp.fao.org/docrep/fao/005/x1168e/x1168e.pdf"/>
+    <hyperlink ref="W200" r:id="rId343" display="ftp://ftp.fao.org/docrep/fao/005/x1168e/x1168e.pdf"/>
+    <hyperlink ref="Q201" r:id="rId344" display="http://www.jps.go.cr/AccionSocial/proyectos/2011/2011Informeanual.pdf"/>
+    <hyperlink ref="W201" r:id="rId345" display="http://www.jps.go.cr/AccionSocial/proyectos/2011/2011Informeanual.pdf"/>
+    <hyperlink ref="F202" r:id="rId346" display="EDUCALCOHOL"/>
+    <hyperlink ref="W202" r:id="rId347" display="https://www.ucr.ac.cr/noticias/2013/09/04/543-de-la-poblacion-no-consume-licor.html"/>
+    <hyperlink ref="W203" r:id="rId348" display="http://biblioteca.icap.ac.cr/BLIVI/COLECCION_UNPAN/BOL_JUNIO_2012_51/FLACSO/carlos_sojo.pdf"/>
+    <hyperlink ref="Q204" r:id="rId349" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
+    <hyperlink ref="W204" r:id="rId350" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
+    <hyperlink ref="Q205" r:id="rId351" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
+    <hyperlink ref="W205" r:id="rId352" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
+    <hyperlink ref="Q206" r:id="rId353" display="http://estadisticas.cepal.org/cepalstat/Perfil_Nacional_Social.html?pais=CRI&amp;idioma=spanish"/>
+    <hyperlink ref="W206" r:id="rId354" display="http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/Portada.asp"/>
+    <hyperlink ref="Q207" r:id="rId355" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
+    <hyperlink ref="W207" r:id="rId356" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
+    <hyperlink ref="Q208" r:id="rId357" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
+    <hyperlink ref="W208" r:id="rId358" display="http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables.html"/>
+    <hyperlink ref="Q209" r:id="rId359" display="http://www.redfeminista-noviolenciaca.org/node/19"/>
+    <hyperlink ref="W209" r:id="rId360" display="http://www.redfeminista-noviolenciaca.org/node/19"/>
+    <hyperlink ref="Q210" r:id="rId361" display="http://estadisticas.cepal.org/cepalstat/Perfil_Nacional_Social.html?pais=CRI&amp;idioma=spanish"/>
+    <hyperlink ref="W210" r:id="rId362" display="http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/Portada.asp"/>
+    <hyperlink ref="W211" r:id="rId363" display="http://www.colectiva-cr.com/sites/default/files/Docs/DS%20en%20Costa%20Rica/Actitudes%20y%20estereotipos%20del%20personal%20de%20salud.pdf"/>
+    <hyperlink ref="Q212" r:id="rId364" display="http://estadisticas.cepal.org/cepalstat/Perfil_Nacional_Social.html?pais=CRI&amp;idioma=spanish"/>
+    <hyperlink ref="W212" r:id="rId365" display="http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/Portada.asp"/>
+    <hyperlink ref="Q213" r:id="rId366" display="http://www.inamu.go.cr/254"/>
+    <hyperlink ref="W213" r:id="rId367" display="http://www.inamu.go.cr/254"/>
+    <hyperlink ref="W214" r:id="rId368" display="http://www.inamu.go.cr/documents/10179/11403/ARTICULO+salud+encuesta+FINAL.pdf/5d83cc97-feda-459a-8470-98304f595434"/>
+    <hyperlink ref="W215" r:id="rId369" display="https://es.unesco.org/gem-report/g%C3%A9nero-y-la-ept-2000-2015"/>
+    <hyperlink ref="Q216" r:id="rId370" display="http://www.mep.go.cr/sites/default/files/page/adjuntos/planilla-alimentos-julio-2016.pdf"/>
+    <hyperlink ref="W216" r:id="rId371" display="http://www.mep.go.cr/programas-y-proyectos/programa-de-alimentacion-y-nutricion"/>
+    <hyperlink ref="Q217" r:id="rId372" display="http://www.mep.go.cr/sites/default/files/page/adjuntos/planilla-huertas-estudiantiles-julio-2016.pdf"/>
+    <hyperlink ref="W217" r:id="rId373" display="http://www.mep.go.cr/programas-y-proyectos/programa-nacional-de-huertas"/>
+    <hyperlink ref="Q218" r:id="rId374" display="http://www.mep.go.cr/sites/default/files/page/adjuntos/planilla-huertas-estudiantiles-julio-2016.pdf"/>
+    <hyperlink ref="W218" r:id="rId375" display="http://www.mep.go.cr/programas-y-proyectos/programa-nacional-de-huertas"/>
+    <hyperlink ref="Q219" r:id="rId376" location="CRI-1250694968-costa_rica_inventario_historico_de_desastres" display="https://online.desinventar.org/desinventar/#CRI-1250694968-costa_rica_inventario_historico_de_desastres"/>
+    <hyperlink ref="W219" r:id="rId377" location="" display="http://www.desinventar.org/es/database#"/>
+    <hyperlink ref="Q220" r:id="rId378" location="CRI-1250694968-costa_rica_inventario_historico_de_desastres" display="https://online.desinventar.org/desinventar/#CRI-1250694968-costa_rica_inventario_historico_de_desastres"/>
+    <hyperlink ref="W220" r:id="rId379" location="" display="http://www.desinventar.org/es/database#"/>
+    <hyperlink ref="Q221" r:id="rId380" location="CRI-1250694968-costa_rica_inventario_historico_de_desastres" display="https://online.desinventar.org/desinventar/#CRI-1250694968-costa_rica_inventario_historico_de_desastres"/>
+    <hyperlink ref="W221" r:id="rId381" location="" display="http://www.desinventar.org/es/database#"/>
+    <hyperlink ref="W222" r:id="rId382" display="http://www.cipacdh.org/pdf/Informe_final_REGIONAL.pdf"/>
+    <hyperlink ref="W223" r:id="rId383" display="http://www.cipacdh.org/pdf/Informe_final_REGIONAL.pdf"/>
+    <hyperlink ref="Q224" r:id="rId384" display="http://datos.bancomundial.org/indicador/EN.ATM.CO2E.PC"/>
+    <hyperlink ref="W224" r:id="rId385" display="http://datos.bancomundial.org/indicador/EN.ATM.CO2E.PC"/>
+    <hyperlink ref="Q225" r:id="rId386" display="http://datos.bancomundial.org/indicador/EN.ATM.CO2E.PC"/>
+    <hyperlink ref="W225" r:id="rId387" display="http://datos.bancomundial.org/indicador/EN.ATM.CO2E.PC"/>
+    <hyperlink ref="Q226" r:id="rId388" display="http://appcenter.grupoice.com/CenceWeb/CenceDescargaArchivos.jsf?init=true&amp;categoria=3&amp;codigoTipoArchivo=3010"/>
+    <hyperlink ref="W226" r:id="rId389" display="http://appcenter.grupoice.com/CenceWeb/CenceDescargaArchivos.jsf?init=true&amp;categoria=3&amp;codigoTipoArchivo=3010"/>
+    <hyperlink ref="Q227" r:id="rId390" display="http://appcenter.grupoice.com/CenceWeb/CenceDescargaArchivos.jsf?init=true&amp;categoria=3&amp;codigoTipoArchivo=3010"/>
+    <hyperlink ref="W227" r:id="rId391" display="http://appcenter.grupoice.com/CenceWeb/CenceDescargaArchivos.jsf?init=true&amp;categoria=3&amp;codigoTipoArchivo=3010"/>
+    <hyperlink ref="Q228" r:id="rId392" display="http://appcenter.grupoice.com/CenceWeb/AccesoArchivos?pmod=1&amp;pcat=3&amp;ptip=3013&amp;pcod=1"/>
+    <hyperlink ref="W228" r:id="rId393" display="http://appcenter.grupoice.com/CenceWeb/CenceDescargaArchivos.jsf?init=true&amp;categoria=3&amp;codigoTipoArchivo=3013"/>
+    <hyperlink ref="W229" r:id="rId394" display="http://appcenter.grupoice.com/CenceWeb/AccesoArchivos?pmod=1&amp;pcat=3&amp;ptip=3013&amp;pcod=3"/>
+    <hyperlink ref="W230" r:id="rId395" display="http://appcenter.grupoice.com/CenceWeb/AccesoArchivos?pmod=1&amp;pcat=3&amp;ptip=3013&amp;pcod=2"/>
+    <hyperlink ref="Q231" r:id="rId396" display="http://faostat3.fao.org/browse/area/48/S"/>
+    <hyperlink ref="W231" r:id="rId397" display="http://faostat3.fao.org/browse/area/48/S"/>
+    <hyperlink ref="Q232" r:id="rId398" display="http://faostat3.fao.org/browse/area/48/S"/>
+    <hyperlink ref="W232" r:id="rId399" display="http://faostat3.fao.org/browse/area/48/S"/>
+    <hyperlink ref="Q233" r:id="rId400" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="W233" r:id="rId401" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="Q234" r:id="rId402" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="W234" r:id="rId403" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="Q235" r:id="rId404" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="W235" r:id="rId405" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="Q236" r:id="rId406" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="W236" r:id="rId407" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="Q237" r:id="rId408" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="W237" r:id="rId409" display="http://www.fao.org/nr/water/aquastat/data/query/results.html"/>
+    <hyperlink ref="Q238" r:id="rId410" display="http://www.emdat.be/country_profile/index.html"/>
+    <hyperlink ref="W238" r:id="rId411" display="http://www.emdat.be/country_profile/index.html"/>
+    <hyperlink ref="Q239" r:id="rId412" display="http://www.wssinfo.org/fileadmin/user_upload/resources/SWA-country-snapshots-Spanish.pdf"/>
+    <hyperlink ref="W239" r:id="rId413" display="http://www.wssinfo.org/fileadmin/user_upload/resources/SWA-country-snapshots-Spanish.pdf"/>
+    <hyperlink ref="Q240" r:id="rId414" display="http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/estadisticasIndicadores.asp?idioma=e"/>
+    <hyperlink ref="W240" r:id="rId415" display="http://estadisticas.cepal.org/cepalstat/WEB_CEPALSTAT/estadisticasIndicadores.asp?idioma=e"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
